--- a/data/Excel Workbooks/TanzaniaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/TanzaniaDataWorkbook.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="9975"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tanzania Workbook" sheetId="1" r:id="rId1"/>
-    <sheet name="Tanzania Indices Comparison" sheetId="6" r:id="rId2"/>
-    <sheet name="Employment calcs" sheetId="2" r:id="rId3"/>
-    <sheet name="Exergy calcs" sheetId="8" r:id="rId4"/>
+    <sheet name="TZData" sheetId="9" r:id="rId2"/>
+    <sheet name="Tanzania Indices Comparison" sheetId="6" r:id="rId3"/>
+    <sheet name="Employment calcs" sheetId="2" r:id="rId4"/>
+    <sheet name="Exergy calcs" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
   <si>
     <t>Notes</t>
   </si>
@@ -806,16 +807,38 @@
   <si>
     <t>Employment [persons ages 15+]</t>
   </si>
+  <si>
+    <t xml:space="preserve"> - The 'TZData' tab has the indexed data from this page formatted for direct exporting into R (a statistical analysis program).</t>
+  </si>
+  <si>
+    <t>iYear</t>
+  </si>
+  <si>
+    <t>iGDP</t>
+  </si>
+  <si>
+    <t>iLabor</t>
+  </si>
+  <si>
+    <t>iCapStk</t>
+  </si>
+  <si>
+    <t>iQ</t>
+  </si>
+  <si>
+    <t>iX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2175,7 +2198,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2339,13 +2362,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2358,6 +2375,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2366,16 +2386,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2384,11 +2410,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="481">
@@ -2963,7 +2995,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tanzania Workbook'!$A$10:$A$30</c:f>
+              <c:f>'Tanzania Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3035,7 +3067,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tanzania Workbook'!$G$10:$G$30</c:f>
+              <c:f>'Tanzania Workbook'!$H$12:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3127,7 +3159,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tanzania Workbook'!$A$10:$A$30</c:f>
+              <c:f>'Tanzania Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3199,7 +3231,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tanzania Workbook'!$I$10:$I$30</c:f>
+              <c:f>'Tanzania Workbook'!$J$12:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3289,7 +3321,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tanzania Workbook'!$A$10:$A$30</c:f>
+              <c:f>'Tanzania Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3361,7 +3393,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tanzania Workbook'!$H$10:$H$30</c:f>
+              <c:f>'Tanzania Workbook'!$I$12:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3453,7 +3485,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tanzania Workbook'!$A$10:$A$30</c:f>
+              <c:f>'Tanzania Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3525,7 +3557,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tanzania Workbook'!$K$10:$K$30</c:f>
+              <c:f>'Tanzania Workbook'!$L$12:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3619,7 +3651,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tanzania Workbook'!$A$10:$A$30</c:f>
+              <c:f>'Tanzania Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3691,7 +3723,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tanzania Workbook'!$J$10:$J$30</c:f>
+              <c:f>'Tanzania Workbook'!$K$12:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3771,11 +3803,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97098368"/>
-        <c:axId val="113386624"/>
+        <c:axId val="47526656"/>
+        <c:axId val="78761984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97098368"/>
+        <c:axId val="47526656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3802,19 +3834,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113386624"/>
+        <c:crossAx val="78761984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113386624"/>
+        <c:axId val="78761984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,14 +3872,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97098368"/>
+        <c:crossAx val="47526656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4529,10 +4559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC34"/>
+  <dimension ref="A1:BD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4540,28 +4570,30 @@
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="70" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="68" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="73" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" customWidth="1"/>
-    <col min="13" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="71" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="71" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" customWidth="1"/>
+    <col min="14" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="5" customFormat="1">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:56" s="5" customFormat="1">
+      <c r="A1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="72"/>
-      <c r="J1" s="73"/>
-    </row>
-    <row r="2" spans="1:55">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="70"/>
+      <c r="G1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="2" spans="1:56">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4571,12 +4603,12 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:55">
+      <c r="J2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:56">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>34</v>
@@ -4584,12 +4616,12 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:55">
+      <c r="J3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:56">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -4597,12 +4629,12 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:55">
+      <c r="J4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:56">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>35</v>
@@ -4610,25 +4642,25 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:55">
+      <c r="J5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:56">
       <c r="A6" s="5"/>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="69" t="s">
         <v>92</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="71"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -4648,7 +4680,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="5"/>
+      <c r="AE6" s="7"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
@@ -4673,939 +4705,1700 @@
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
-    </row>
-    <row r="8" spans="1:55" ht="15" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="74" t="s">
+      <c r="BD6" s="5"/>
+    </row>
+    <row r="7" spans="1:56" s="71" customFormat="1">
+      <c r="B7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="69"/>
+    </row>
+    <row r="8" spans="1:56" s="71" customFormat="1">
+      <c r="B8" s="69"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+    </row>
+    <row r="9" spans="1:56">
+      <c r="G9" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" ht="15" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C10" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D10" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E10" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F10" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G10" s="72"/>
+      <c r="H10" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="I10" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="J10" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="K10" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="74" t="s">
+      <c r="L10" s="73" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:56">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-    </row>
-    <row r="10" spans="1:55">
-      <c r="A10" s="11">
+      <c r="B11" s="75"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+    </row>
+    <row r="12" spans="1:56">
+      <c r="A12" s="11">
         <v>1991</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B12" s="86">
         <v>7608</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C12" s="85">
         <v>11233022.592599999</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D12" s="86">
         <v>11404</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E12" s="85">
         <v>173168.65405854557</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F12" s="85">
         <v>121316.20777275937</v>
       </c>
-      <c r="G10" s="68">
-        <f>B10/$B$10</f>
+      <c r="G12" s="85">
+        <f>A12-$A$12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="67">
+        <f>B12/$B$12</f>
         <v>1</v>
       </c>
-      <c r="H10" s="68">
-        <f>C10/$C$10</f>
+      <c r="I12" s="67">
+        <f>C12/$C$12</f>
         <v>1</v>
       </c>
-      <c r="I10" s="68">
-        <f>D10/$D$10</f>
+      <c r="J12" s="67">
+        <f>D12/$D$12</f>
         <v>1</v>
       </c>
-      <c r="J10" s="68">
-        <f>E10/$E$10</f>
+      <c r="K12" s="67">
+        <f t="shared" ref="K12:K32" si="0">E12/$E$12</f>
         <v>1</v>
       </c>
-      <c r="K10" s="68">
-        <f>F10/$F$10</f>
+      <c r="L12" s="67">
+        <f>F12/$F$12</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
-      <c r="A11" s="11">
+    <row r="13" spans="1:56">
+      <c r="A13" s="11">
         <v>1992</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B13" s="86">
         <v>7653</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C13" s="85">
         <v>11469487.442400001</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D13" s="86">
         <v>12297</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E13" s="85">
         <v>178545.36477138437</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F13" s="85">
         <v>125731.98096905203</v>
       </c>
-      <c r="G11" s="68">
-        <f t="shared" ref="G11:G30" si="0">B11/$B$10</f>
+      <c r="G13" s="85">
+        <f t="shared" ref="G13:G32" si="1">A13-$A$12</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="67">
+        <f t="shared" ref="H13:H32" si="2">B13/$B$12</f>
         <v>1.0059148264984228</v>
       </c>
-      <c r="H11" s="68">
-        <f t="shared" ref="H11:H30" si="1">C11/$C$10</f>
+      <c r="I13" s="67">
+        <f t="shared" ref="I13:I32" si="3">C13/$C$12</f>
         <v>1.0210508656820274</v>
       </c>
-      <c r="I11" s="68">
-        <f t="shared" ref="I11:I30" si="2">D11/$D$10</f>
+      <c r="J13" s="67">
+        <f t="shared" ref="J13:J32" si="4">D13/$D$12</f>
         <v>1.0783058575938267</v>
       </c>
-      <c r="J11" s="68">
-        <f>E11/$E$10</f>
+      <c r="K13" s="67">
+        <f t="shared" si="0"/>
         <v>1.0310489836747303</v>
       </c>
-      <c r="K11" s="68">
-        <f t="shared" ref="K11:K30" si="3">F11/$F$10</f>
+      <c r="L13" s="67">
+        <f t="shared" ref="L13:L32" si="5">F13/$F$12</f>
         <v>1.036398872643332</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
-      <c r="A12" s="11">
+    <row r="14" spans="1:56">
+      <c r="A14" s="11">
         <v>1993</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B14" s="86">
         <v>7745</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C14" s="85">
         <v>11857750.866000002</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D14" s="86">
         <v>12934</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E14" s="85">
         <v>185354.91346536076</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F14" s="85">
         <v>130666.09674701143</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G14" s="85">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H14" s="67">
+        <f t="shared" si="2"/>
+        <v>1.0180073606729758</v>
+      </c>
+      <c r="I14" s="67">
+        <f t="shared" si="3"/>
+        <v>1.0556153313366927</v>
+      </c>
+      <c r="J14" s="67">
+        <f t="shared" si="4"/>
+        <v>1.1341634514205541</v>
+      </c>
+      <c r="K14" s="67">
         <f t="shared" si="0"/>
-        <v>1.0180073606729758</v>
-      </c>
-      <c r="H12" s="68">
+        <v>1.0703722014418107</v>
+      </c>
+      <c r="L14" s="67">
+        <f t="shared" si="5"/>
+        <v>1.0770704025942319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56">
+      <c r="A15" s="11">
+        <v>1994</v>
+      </c>
+      <c r="B15" s="86">
+        <v>7867</v>
+      </c>
+      <c r="C15" s="85">
+        <v>12468551.667000001</v>
+      </c>
+      <c r="D15" s="86">
+        <v>13546</v>
+      </c>
+      <c r="E15" s="85">
+        <v>184305.07299275906</v>
+      </c>
+      <c r="F15" s="85">
+        <v>125987.69318548018</v>
+      </c>
+      <c r="G15" s="85">
         <f t="shared" si="1"/>
-        <v>1.0556153313366927</v>
-      </c>
-      <c r="I12" s="68">
+        <v>3</v>
+      </c>
+      <c r="H15" s="67">
         <f t="shared" si="2"/>
-        <v>1.1341634514205541</v>
-      </c>
-      <c r="J12" s="68">
-        <f>E12/$E$10</f>
-        <v>1.0703722014418107</v>
-      </c>
-      <c r="K12" s="68">
+        <v>1.034043112513144</v>
+      </c>
+      <c r="I15" s="67">
         <f t="shared" si="3"/>
-        <v>1.0770704025942319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55">
-      <c r="A13" s="11">
-        <v>1994</v>
-      </c>
-      <c r="B13" s="8">
-        <v>7867</v>
-      </c>
-      <c r="C13" s="69">
-        <v>12468551.667000001</v>
-      </c>
-      <c r="D13" s="8">
-        <v>13546</v>
-      </c>
-      <c r="E13" s="67">
-        <v>184305.07299275906</v>
-      </c>
-      <c r="F13" s="67">
-        <v>125987.69318548018</v>
-      </c>
-      <c r="G13" s="68">
+        <v>1.1099907940373888</v>
+      </c>
+      <c r="J15" s="67">
+        <f t="shared" si="4"/>
+        <v>1.1878288319887758</v>
+      </c>
+      <c r="K15" s="67">
         <f t="shared" si="0"/>
-        <v>1.034043112513144</v>
-      </c>
-      <c r="H13" s="68">
+        <v>1.0643096696382963</v>
+      </c>
+      <c r="L15" s="67">
+        <f t="shared" si="5"/>
+        <v>1.0385066884176852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56">
+      <c r="A16" s="11">
+        <v>1995</v>
+      </c>
+      <c r="B16" s="86">
+        <v>8147</v>
+      </c>
+      <c r="C16" s="85">
+        <v>12845861.028000003</v>
+      </c>
+      <c r="D16" s="86">
+        <v>13888</v>
+      </c>
+      <c r="E16" s="85">
+        <v>186962.28791285586</v>
+      </c>
+      <c r="F16" s="85">
+        <v>126463.52615813092</v>
+      </c>
+      <c r="G16" s="85">
         <f t="shared" si="1"/>
-        <v>1.1099907940373888</v>
-      </c>
-      <c r="I13" s="68">
+        <v>4</v>
+      </c>
+      <c r="H16" s="67">
         <f t="shared" si="2"/>
-        <v>1.1878288319887758</v>
-      </c>
-      <c r="J13" s="68">
-        <f>E13/$E$10</f>
-        <v>1.0643096696382963</v>
-      </c>
-      <c r="K13" s="68">
+        <v>1.0708464773922186</v>
+      </c>
+      <c r="I16" s="67">
         <f t="shared" si="3"/>
-        <v>1.0385066884176852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55">
-      <c r="A14" s="11">
-        <v>1995</v>
-      </c>
-      <c r="B14" s="8">
-        <v>8147</v>
-      </c>
-      <c r="C14" s="69">
-        <v>12845861.028000003</v>
-      </c>
-      <c r="D14" s="8">
-        <v>13888</v>
-      </c>
-      <c r="E14" s="67">
-        <v>186962.28791285586</v>
-      </c>
-      <c r="F14" s="67">
-        <v>126463.52615813092</v>
-      </c>
-      <c r="G14" s="68">
+        <v>1.143580093612782</v>
+      </c>
+      <c r="J16" s="67">
+        <f t="shared" si="4"/>
+        <v>1.2178183093651351</v>
+      </c>
+      <c r="K16" s="67">
         <f t="shared" si="0"/>
-        <v>1.0708464773922186</v>
-      </c>
-      <c r="H14" s="68">
+        <v>1.0796543342633296</v>
+      </c>
+      <c r="L16" s="67">
+        <f t="shared" si="5"/>
+        <v>1.0424289423472017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="11">
+        <v>1996</v>
+      </c>
+      <c r="B17" s="86">
+        <v>8518</v>
+      </c>
+      <c r="C17" s="85">
+        <v>13205973.494999999</v>
+      </c>
+      <c r="D17" s="86">
+        <v>14173</v>
+      </c>
+      <c r="E17" s="85">
+        <v>192572.40725589223</v>
+      </c>
+      <c r="F17" s="85">
+        <v>130055.40943351472</v>
+      </c>
+      <c r="G17" s="85">
         <f t="shared" si="1"/>
-        <v>1.143580093612782</v>
-      </c>
-      <c r="I14" s="68">
+        <v>5</v>
+      </c>
+      <c r="H17" s="67">
         <f t="shared" si="2"/>
-        <v>1.2178183093651351</v>
-      </c>
-      <c r="J14" s="68">
-        <f>E14/$E$10</f>
-        <v>1.0796543342633296</v>
-      </c>
-      <c r="K14" s="68">
+        <v>1.1196109358569926</v>
+      </c>
+      <c r="I17" s="67">
         <f t="shared" si="3"/>
-        <v>1.0424289423472017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55">
-      <c r="A15" s="11">
-        <v>1996</v>
-      </c>
-      <c r="B15" s="8">
-        <v>8518</v>
-      </c>
-      <c r="C15" s="69">
-        <v>13205973.494999999</v>
-      </c>
-      <c r="D15" s="8">
-        <v>14173</v>
-      </c>
-      <c r="E15" s="67">
-        <v>192572.40725589223</v>
-      </c>
-      <c r="F15" s="67">
-        <v>130055.40943351472</v>
-      </c>
-      <c r="G15" s="68">
+        <v>1.1756384700676845</v>
+      </c>
+      <c r="J17" s="67">
+        <f t="shared" si="4"/>
+        <v>1.2428095405121009</v>
+      </c>
+      <c r="K17" s="67">
         <f t="shared" si="0"/>
-        <v>1.1196109358569926</v>
-      </c>
-      <c r="H15" s="68">
+        <v>1.1120511867626259</v>
+      </c>
+      <c r="L17" s="67">
+        <f t="shared" si="5"/>
+        <v>1.0720365548940087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="11">
+        <v>1997</v>
+      </c>
+      <c r="B18" s="86">
+        <v>8818</v>
+      </c>
+      <c r="C18" s="85">
+        <v>13553161.050000001</v>
+      </c>
+      <c r="D18" s="86">
+        <v>14442</v>
+      </c>
+      <c r="E18" s="85">
+        <v>191401.25447718409</v>
+      </c>
+      <c r="F18" s="85">
+        <v>126830.80698601206</v>
+      </c>
+      <c r="G18" s="85">
         <f t="shared" si="1"/>
-        <v>1.1756384700676845</v>
-      </c>
-      <c r="I15" s="68">
+        <v>6</v>
+      </c>
+      <c r="H18" s="67">
         <f t="shared" si="2"/>
-        <v>1.2428095405121009</v>
-      </c>
-      <c r="J15" s="68">
-        <f>E15/$E$10</f>
-        <v>1.1120511867626259</v>
-      </c>
-      <c r="K15" s="68">
+        <v>1.159043112513144</v>
+      </c>
+      <c r="I18" s="67">
         <f t="shared" si="3"/>
-        <v>1.0720365548940087</v>
-      </c>
-    </row>
-    <row r="16" spans="1:55">
-      <c r="A16" s="11">
-        <v>1997</v>
-      </c>
-      <c r="B16" s="8">
-        <v>8818</v>
-      </c>
-      <c r="C16" s="69">
-        <v>13553161.050000001</v>
-      </c>
-      <c r="D16" s="8">
-        <v>14442</v>
-      </c>
-      <c r="E16" s="67">
-        <v>191401.25447718409</v>
-      </c>
-      <c r="F16" s="67">
-        <v>126830.80698601206</v>
-      </c>
-      <c r="G16" s="68">
+        <v>1.206546229055788</v>
+      </c>
+      <c r="J18" s="67">
+        <f t="shared" si="4"/>
+        <v>1.2663977551736232</v>
+      </c>
+      <c r="K18" s="67">
         <f t="shared" si="0"/>
-        <v>1.159043112513144</v>
-      </c>
-      <c r="H16" s="68">
+        <v>1.1052881107020349</v>
+      </c>
+      <c r="L18" s="67">
+        <f t="shared" si="5"/>
+        <v>1.0454564094484575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="11">
+        <v>1998</v>
+      </c>
+      <c r="B19" s="86">
+        <v>9145</v>
+      </c>
+      <c r="C19" s="85">
+        <v>13716602.168500001</v>
+      </c>
+      <c r="D19" s="86">
+        <v>14871</v>
+      </c>
+      <c r="E19" s="85">
+        <v>199974.28821633634</v>
+      </c>
+      <c r="F19" s="85">
+        <v>134419.43661757751</v>
+      </c>
+      <c r="G19" s="85">
         <f t="shared" si="1"/>
-        <v>1.206546229055788</v>
-      </c>
-      <c r="I16" s="68">
+        <v>7</v>
+      </c>
+      <c r="H19" s="67">
         <f t="shared" si="2"/>
-        <v>1.2663977551736232</v>
-      </c>
-      <c r="J16" s="68">
-        <f>E16/$E$10</f>
-        <v>1.1052881107020349</v>
-      </c>
-      <c r="K16" s="68">
+        <v>1.2020241850683491</v>
+      </c>
+      <c r="I19" s="67">
         <f t="shared" si="3"/>
-        <v>1.0454564094484575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="11">
-        <v>1998</v>
-      </c>
-      <c r="B17" s="8">
-        <v>9145</v>
-      </c>
-      <c r="C17" s="69">
-        <v>13716602.168500001</v>
-      </c>
-      <c r="D17" s="8">
-        <v>14871</v>
-      </c>
-      <c r="E17" s="67">
-        <v>199974.28821633634</v>
-      </c>
-      <c r="F17" s="67">
-        <v>134419.43661757751</v>
-      </c>
-      <c r="G17" s="68">
+        <v>1.2210962860108654</v>
+      </c>
+      <c r="J19" s="67">
+        <f t="shared" si="4"/>
+        <v>1.3040161346895827</v>
+      </c>
+      <c r="K19" s="67">
         <f t="shared" si="0"/>
-        <v>1.2020241850683491</v>
-      </c>
-      <c r="H17" s="68">
+        <v>1.1547949558395725</v>
+      </c>
+      <c r="L19" s="67">
+        <f t="shared" si="5"/>
+        <v>1.1080088892109301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11">
+        <v>1999</v>
+      </c>
+      <c r="B20" s="86">
+        <v>9588</v>
+      </c>
+      <c r="C20" s="85">
+        <v>14059058.6675</v>
+      </c>
+      <c r="D20" s="86">
+        <v>15359</v>
+      </c>
+      <c r="E20" s="85">
+        <v>205939.20396934327</v>
+      </c>
+      <c r="F20" s="85">
+        <v>138564.54916707627</v>
+      </c>
+      <c r="G20" s="85">
         <f t="shared" si="1"/>
-        <v>1.2210962860108654</v>
-      </c>
-      <c r="I17" s="68">
+        <v>8</v>
+      </c>
+      <c r="H20" s="67">
         <f t="shared" si="2"/>
-        <v>1.3040161346895827</v>
-      </c>
-      <c r="J17" s="68">
-        <f>E17/$E$10</f>
-        <v>1.1547949558395725</v>
-      </c>
-      <c r="K17" s="68">
+        <v>1.2602523659305993</v>
+      </c>
+      <c r="I20" s="67">
         <f t="shared" si="3"/>
-        <v>1.1080088892109301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="11">
-        <v>1999</v>
-      </c>
-      <c r="B18" s="8">
-        <v>9588</v>
-      </c>
-      <c r="C18" s="69">
-        <v>14059058.6675</v>
-      </c>
-      <c r="D18" s="8">
-        <v>15359</v>
-      </c>
-      <c r="E18" s="67">
-        <v>205939.20396934327</v>
-      </c>
-      <c r="F18" s="67">
-        <v>138564.54916707627</v>
-      </c>
-      <c r="G18" s="68">
+        <v>1.2515828710931032</v>
+      </c>
+      <c r="J20" s="67">
+        <f t="shared" si="4"/>
+        <v>1.3468081374956156</v>
+      </c>
+      <c r="K20" s="67">
         <f t="shared" si="0"/>
-        <v>1.2602523659305993</v>
-      </c>
-      <c r="H18" s="68">
+        <v>1.1892406572595899</v>
+      </c>
+      <c r="L20" s="67">
+        <f t="shared" si="5"/>
+        <v>1.1421767273390644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="86">
+        <v>10061</v>
+      </c>
+      <c r="C21" s="85">
+        <v>14415161.183500001</v>
+      </c>
+      <c r="D21" s="86">
+        <v>15902</v>
+      </c>
+      <c r="E21" s="85">
+        <v>208518.92177289349</v>
+      </c>
+      <c r="F21" s="85">
+        <v>139064.00373797875</v>
+      </c>
+      <c r="G21" s="85">
         <f t="shared" si="1"/>
-        <v>1.2515828710931032</v>
-      </c>
-      <c r="I18" s="68">
+        <v>9</v>
+      </c>
+      <c r="H21" s="67">
         <f t="shared" si="2"/>
-        <v>1.3468081374956156</v>
-      </c>
-      <c r="J18" s="68">
-        <f>E18/$E$10</f>
-        <v>1.1892406572595899</v>
-      </c>
-      <c r="K18" s="68">
+        <v>1.3224237644584649</v>
+      </c>
+      <c r="I21" s="67">
         <f t="shared" si="3"/>
-        <v>1.1421767273390644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="11">
-        <v>2000</v>
-      </c>
-      <c r="B19" s="8">
-        <v>10061</v>
-      </c>
-      <c r="C19" s="69">
-        <v>14415161.183500001</v>
-      </c>
-      <c r="D19" s="8">
-        <v>15902</v>
-      </c>
-      <c r="E19" s="67">
-        <v>208518.92177289349</v>
-      </c>
-      <c r="F19" s="67">
-        <v>139064.00373797875</v>
-      </c>
-      <c r="G19" s="68">
+        <v>1.2832842687413721</v>
+      </c>
+      <c r="J21" s="67">
+        <f t="shared" si="4"/>
+        <v>1.3944230094703614</v>
+      </c>
+      <c r="K21" s="67">
         <f t="shared" si="0"/>
-        <v>1.3224237644584649</v>
-      </c>
-      <c r="H19" s="68">
+        <v>1.2041377979550303</v>
+      </c>
+      <c r="L21" s="67">
+        <f t="shared" si="5"/>
+        <v>1.1462936922530851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="11">
+        <v>2001</v>
+      </c>
+      <c r="B22" s="86">
+        <v>10664</v>
+      </c>
+      <c r="C22" s="85">
+        <v>14787380.415500002</v>
+      </c>
+      <c r="D22" s="86">
+        <v>16602</v>
+      </c>
+      <c r="E22" s="85">
+        <v>223052.2490764703</v>
+      </c>
+      <c r="F22" s="85">
+        <v>151904.82841983312</v>
+      </c>
+      <c r="G22" s="85">
         <f t="shared" si="1"/>
-        <v>1.2832842687413721</v>
-      </c>
-      <c r="I19" s="68">
+        <v>10</v>
+      </c>
+      <c r="H22" s="67">
         <f t="shared" si="2"/>
-        <v>1.3944230094703614</v>
-      </c>
-      <c r="J19" s="68">
-        <f>E19/$E$10</f>
-        <v>1.2041377979550303</v>
-      </c>
-      <c r="K19" s="68">
+        <v>1.4016824395373291</v>
+      </c>
+      <c r="I22" s="67">
         <f t="shared" si="3"/>
-        <v>1.1462936922530851</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="11">
-        <v>2001</v>
-      </c>
-      <c r="B20" s="8">
-        <v>10664</v>
-      </c>
-      <c r="C20" s="69">
-        <v>14787380.415500002</v>
-      </c>
-      <c r="D20" s="8">
-        <v>16602</v>
-      </c>
-      <c r="E20" s="67">
-        <v>223052.2490764703</v>
-      </c>
-      <c r="F20" s="67">
-        <v>151904.82841983312</v>
-      </c>
-      <c r="G20" s="68">
+        <v>1.3164204285711589</v>
+      </c>
+      <c r="J22" s="67">
+        <f t="shared" si="4"/>
+        <v>1.4558049807085234</v>
+      </c>
+      <c r="K22" s="67">
         <f t="shared" si="0"/>
-        <v>1.4016824395373291</v>
-      </c>
-      <c r="H20" s="68">
+        <v>1.2880636526808129</v>
+      </c>
+      <c r="L22" s="67">
+        <f t="shared" si="5"/>
+        <v>1.252139604498437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="11">
+        <v>2002</v>
+      </c>
+      <c r="B23" s="86">
+        <v>11428</v>
+      </c>
+      <c r="C23" s="85">
+        <v>15372139.926000001</v>
+      </c>
+      <c r="D23" s="86">
+        <v>17397</v>
+      </c>
+      <c r="E23" s="85">
+        <v>234628.02158999402</v>
+      </c>
+      <c r="F23" s="85">
+        <v>160602.91228511097</v>
+      </c>
+      <c r="G23" s="85">
         <f t="shared" si="1"/>
-        <v>1.3164204285711589</v>
-      </c>
-      <c r="I20" s="68">
+        <v>11</v>
+      </c>
+      <c r="H23" s="67">
         <f t="shared" si="2"/>
-        <v>1.4558049807085234</v>
-      </c>
-      <c r="J20" s="68">
-        <f>E20/$E$10</f>
-        <v>1.2880636526808129</v>
-      </c>
-      <c r="K20" s="68">
+        <v>1.5021030494216614</v>
+      </c>
+      <c r="I23" s="67">
         <f t="shared" si="3"/>
-        <v>1.252139604498437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="11">
-        <v>2002</v>
-      </c>
-      <c r="B21" s="8">
-        <v>11428</v>
-      </c>
-      <c r="C21" s="69">
-        <v>15372139.926000001</v>
-      </c>
-      <c r="D21" s="8">
-        <v>17397</v>
-      </c>
-      <c r="E21" s="67">
-        <v>234628.02158999402</v>
-      </c>
-      <c r="F21" s="67">
-        <v>160602.91228511097</v>
-      </c>
-      <c r="G21" s="68">
+        <v>1.3684776113712027</v>
+      </c>
+      <c r="J23" s="67">
+        <f t="shared" si="4"/>
+        <v>1.5255173623290075</v>
+      </c>
+      <c r="K23" s="67">
         <f t="shared" si="0"/>
-        <v>1.5021030494216614</v>
-      </c>
-      <c r="H21" s="68">
+        <v>1.3549104649775128</v>
+      </c>
+      <c r="L23" s="67">
+        <f t="shared" si="5"/>
+        <v>1.3238372286243942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="11">
+        <v>2003</v>
+      </c>
+      <c r="B24" s="86">
+        <v>12215</v>
+      </c>
+      <c r="C24" s="85">
+        <v>15984508.0945</v>
+      </c>
+      <c r="D24" s="86">
+        <v>18409</v>
+      </c>
+      <c r="E24" s="85">
+        <v>240353.97338936597</v>
+      </c>
+      <c r="F24" s="85">
+        <v>163015.95097447131</v>
+      </c>
+      <c r="G24" s="85">
         <f t="shared" si="1"/>
-        <v>1.3684776113712027</v>
-      </c>
-      <c r="I21" s="68">
+        <v>12</v>
+      </c>
+      <c r="H24" s="67">
         <f t="shared" si="2"/>
-        <v>1.5255173623290075</v>
-      </c>
-      <c r="J21" s="68">
-        <f>E21/$E$10</f>
-        <v>1.3549104649775128</v>
-      </c>
-      <c r="K21" s="68">
+        <v>1.6055467928496319</v>
+      </c>
+      <c r="I24" s="67">
         <f t="shared" si="3"/>
-        <v>1.3238372286243942</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="11">
-        <v>2003</v>
-      </c>
-      <c r="B22" s="8">
-        <v>12215</v>
-      </c>
-      <c r="C22" s="69">
-        <v>15984508.0945</v>
-      </c>
-      <c r="D22" s="8">
-        <v>18409</v>
-      </c>
-      <c r="E22" s="67">
-        <v>240353.97338936597</v>
-      </c>
-      <c r="F22" s="67">
-        <v>163015.95097447131</v>
-      </c>
-      <c r="G22" s="68">
+        <v>1.4229926061957845</v>
+      </c>
+      <c r="J24" s="67">
+        <f t="shared" si="4"/>
+        <v>1.6142581550333217</v>
+      </c>
+      <c r="K24" s="67">
         <f t="shared" si="0"/>
-        <v>1.6055467928496319</v>
-      </c>
-      <c r="H22" s="68">
+        <v>1.3879762171513219</v>
+      </c>
+      <c r="L24" s="67">
+        <f t="shared" si="5"/>
+        <v>1.3437277175678031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="11">
+        <v>2004</v>
+      </c>
+      <c r="B25" s="86">
+        <v>13171</v>
+      </c>
+      <c r="C25" s="85">
+        <v>16418428.037</v>
+      </c>
+      <c r="D25" s="86">
+        <v>19583</v>
+      </c>
+      <c r="E25" s="85">
+        <v>249824.89580707112</v>
+      </c>
+      <c r="F25" s="85">
+        <v>170452.27904247312</v>
+      </c>
+      <c r="G25" s="85">
         <f t="shared" si="1"/>
-        <v>1.4229926061957845</v>
-      </c>
-      <c r="I22" s="68">
+        <v>13</v>
+      </c>
+      <c r="H25" s="67">
         <f t="shared" si="2"/>
-        <v>1.6142581550333217</v>
-      </c>
-      <c r="J22" s="68">
-        <f>E22/$E$10</f>
-        <v>1.3879762171513219</v>
-      </c>
-      <c r="K22" s="68">
+        <v>1.7312039957939012</v>
+      </c>
+      <c r="I25" s="67">
         <f t="shared" si="3"/>
-        <v>1.3437277175678031</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="11">
-        <v>2004</v>
-      </c>
-      <c r="B23" s="8">
-        <v>13171</v>
-      </c>
-      <c r="C23" s="69">
-        <v>16418428.037</v>
-      </c>
-      <c r="D23" s="8">
-        <v>19583</v>
-      </c>
-      <c r="E23" s="67">
-        <v>249824.89580707112</v>
-      </c>
-      <c r="F23" s="67">
-        <v>170452.27904247312</v>
-      </c>
-      <c r="G23" s="68">
+        <v>1.4616215628210345</v>
+      </c>
+      <c r="J25" s="67">
+        <f t="shared" si="4"/>
+        <v>1.7172044896527534</v>
+      </c>
+      <c r="K25" s="67">
         <f t="shared" si="0"/>
-        <v>1.7312039957939012</v>
-      </c>
-      <c r="H23" s="68">
+        <v>1.4426681154581782</v>
+      </c>
+      <c r="L25" s="67">
+        <f t="shared" si="5"/>
+        <v>1.4050247874690565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="11">
+        <v>2005</v>
+      </c>
+      <c r="B26" s="86">
+        <v>14142</v>
+      </c>
+      <c r="C26" s="85">
+        <v>16872079.928000003</v>
+      </c>
+      <c r="D26" s="86">
+        <v>21134</v>
+      </c>
+      <c r="E26" s="85">
+        <v>263477.46280451462</v>
+      </c>
+      <c r="F26" s="85">
+        <v>182282.99630830527</v>
+      </c>
+      <c r="G26" s="85">
         <f t="shared" si="1"/>
-        <v>1.4616215628210345</v>
-      </c>
-      <c r="I23" s="68">
+        <v>14</v>
+      </c>
+      <c r="H26" s="67">
         <f t="shared" si="2"/>
-        <v>1.7172044896527534</v>
-      </c>
-      <c r="J23" s="68">
-        <f>E23/$E$10</f>
-        <v>1.4426681154581782</v>
-      </c>
-      <c r="K23" s="68">
+        <v>1.8588328075709779</v>
+      </c>
+      <c r="I26" s="67">
         <f t="shared" si="3"/>
-        <v>1.4050247874690565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="11">
-        <v>2005</v>
-      </c>
-      <c r="B24" s="8">
-        <v>14142</v>
-      </c>
-      <c r="C24" s="69">
-        <v>16872079.928000003</v>
-      </c>
-      <c r="D24" s="8">
-        <v>21134</v>
-      </c>
-      <c r="E24" s="67">
-        <v>263477.46280451462</v>
-      </c>
-      <c r="F24" s="67">
-        <v>182282.99630830527</v>
-      </c>
-      <c r="G24" s="68">
+        <v>1.5020071213170048</v>
+      </c>
+      <c r="J26" s="67">
+        <f t="shared" si="4"/>
+        <v>1.8532094002104524</v>
+      </c>
+      <c r="K26" s="67">
         <f t="shared" si="0"/>
-        <v>1.8588328075709779</v>
-      </c>
-      <c r="H24" s="68">
+        <v>1.5215078285209578</v>
+      </c>
+      <c r="L26" s="67">
+        <f t="shared" si="5"/>
+        <v>1.502544463388968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="11">
+        <v>2006</v>
+      </c>
+      <c r="B27" s="86">
+        <v>15095</v>
+      </c>
+      <c r="C27" s="85">
+        <v>17346808.1105</v>
+      </c>
+      <c r="D27" s="86">
+        <v>23046</v>
+      </c>
+      <c r="E27" s="85">
+        <v>270502.35594789725</v>
+      </c>
+      <c r="F27" s="85">
+        <v>186933.59507453861</v>
+      </c>
+      <c r="G27" s="85">
         <f t="shared" si="1"/>
-        <v>1.5020071213170048</v>
-      </c>
-      <c r="I24" s="68">
+        <v>15</v>
+      </c>
+      <c r="H27" s="67">
         <f t="shared" si="2"/>
-        <v>1.8532094002104524</v>
-      </c>
-      <c r="J24" s="68">
-        <f>E24/$E$10</f>
-        <v>1.5215078285209578</v>
-      </c>
-      <c r="K24" s="68">
+        <v>1.9840956887486856</v>
+      </c>
+      <c r="I27" s="67">
         <f t="shared" si="3"/>
-        <v>1.502544463388968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="11">
-        <v>2006</v>
-      </c>
-      <c r="B25" s="8">
-        <v>15095</v>
-      </c>
-      <c r="C25" s="69">
-        <v>17346808.1105</v>
-      </c>
-      <c r="D25" s="8">
-        <v>23046</v>
-      </c>
-      <c r="E25" s="67">
-        <v>270502.35594789725</v>
-      </c>
-      <c r="F25" s="67">
-        <v>186933.59507453861</v>
-      </c>
-      <c r="G25" s="68">
+        <v>1.5442689594453047</v>
+      </c>
+      <c r="J27" s="67">
+        <f t="shared" si="4"/>
+        <v>2.0208698702209751</v>
+      </c>
+      <c r="K27" s="67">
         <f t="shared" si="0"/>
-        <v>1.9840956887486856</v>
-      </c>
-      <c r="H25" s="68">
+        <v>1.5620745995776157</v>
+      </c>
+      <c r="L27" s="67">
+        <f t="shared" si="5"/>
+        <v>1.5408789848153588</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11">
+        <v>2007</v>
+      </c>
+      <c r="B28" s="86">
+        <v>16174</v>
+      </c>
+      <c r="C28" s="85">
+        <v>17844126.3825</v>
+      </c>
+      <c r="D28" s="86">
+        <v>25315</v>
+      </c>
+      <c r="E28" s="85">
+        <v>292227.51379982289</v>
+      </c>
+      <c r="F28" s="85">
+        <v>206209.65424502161</v>
+      </c>
+      <c r="G28" s="85">
         <f t="shared" si="1"/>
-        <v>1.5442689594453047</v>
-      </c>
-      <c r="I25" s="68">
+        <v>16</v>
+      </c>
+      <c r="H28" s="67">
         <f t="shared" si="2"/>
-        <v>2.0208698702209751</v>
-      </c>
-      <c r="J25" s="68">
-        <f>E25/$E$10</f>
-        <v>1.5620745995776157</v>
-      </c>
-      <c r="K25" s="68">
+        <v>2.1259200841219767</v>
+      </c>
+      <c r="I28" s="67">
         <f t="shared" si="3"/>
-        <v>1.5408789848153588</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="11">
-        <v>2007</v>
-      </c>
-      <c r="B26" s="8">
-        <v>16174</v>
-      </c>
-      <c r="C26" s="69">
-        <v>17844126.3825</v>
-      </c>
-      <c r="D26" s="8">
-        <v>25315</v>
-      </c>
-      <c r="E26" s="67">
-        <v>292227.51379982289</v>
-      </c>
-      <c r="F26" s="67">
-        <v>206209.65424502161</v>
-      </c>
-      <c r="G26" s="68">
+        <v>1.5885418403996812</v>
+      </c>
+      <c r="J28" s="67">
+        <f t="shared" si="4"/>
+        <v>2.2198351455629606</v>
+      </c>
+      <c r="K28" s="67">
         <f t="shared" si="0"/>
-        <v>2.1259200841219767</v>
-      </c>
-      <c r="H26" s="68">
+        <v>1.6875312416589288</v>
+      </c>
+      <c r="L28" s="67">
+        <f t="shared" si="5"/>
+        <v>1.6997700309861186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="11">
+        <v>2008</v>
+      </c>
+      <c r="B29" s="86">
+        <v>17377</v>
+      </c>
+      <c r="C29" s="85">
+        <v>18365301.311500002</v>
+      </c>
+      <c r="D29" s="86">
+        <v>27728</v>
+      </c>
+      <c r="E29" s="85">
+        <v>304128.02742018161</v>
+      </c>
+      <c r="F29" s="85">
+        <v>215524.84987201018</v>
+      </c>
+      <c r="G29" s="85">
         <f t="shared" si="1"/>
-        <v>1.5885418403996812</v>
-      </c>
-      <c r="I26" s="68">
+        <v>17</v>
+      </c>
+      <c r="H29" s="67">
         <f t="shared" si="2"/>
-        <v>2.2198351455629606</v>
-      </c>
-      <c r="J26" s="68">
-        <f>E26/$E$10</f>
-        <v>1.6875312416589288</v>
-      </c>
-      <c r="K26" s="68">
+        <v>2.2840431125131442</v>
+      </c>
+      <c r="I29" s="67">
         <f t="shared" si="3"/>
-        <v>1.6997700309861186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="11">
-        <v>2008</v>
-      </c>
-      <c r="B27" s="8">
-        <v>17377</v>
-      </c>
-      <c r="C27" s="69">
-        <v>18365301.311500002</v>
-      </c>
-      <c r="D27" s="8">
-        <v>27728</v>
-      </c>
-      <c r="E27" s="67">
-        <v>304128.02742018161</v>
-      </c>
-      <c r="F27" s="67">
-        <v>215524.84987201018</v>
-      </c>
-      <c r="G27" s="68">
+        <v>1.6349385181151996</v>
+      </c>
+      <c r="J29" s="67">
+        <f t="shared" si="4"/>
+        <v>2.4314275692739389</v>
+      </c>
+      <c r="K29" s="67">
         <f t="shared" si="0"/>
-        <v>2.2840431125131442</v>
-      </c>
-      <c r="H27" s="68">
+        <v>1.7562533420012651</v>
+      </c>
+      <c r="L29" s="67">
+        <f t="shared" si="5"/>
+        <v>1.7765544590358078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B30" s="86">
+        <v>18423</v>
+      </c>
+      <c r="C30" s="85">
+        <v>18911498.661000002</v>
+      </c>
+      <c r="D30" s="86">
+        <v>30395</v>
+      </c>
+      <c r="E30" s="85">
+        <v>316559.08342157438</v>
+      </c>
+      <c r="F30" s="85">
+        <v>225168.69189263161</v>
+      </c>
+      <c r="G30" s="85">
         <f t="shared" si="1"/>
-        <v>1.6349385181151996</v>
-      </c>
-      <c r="I27" s="68">
+        <v>18</v>
+      </c>
+      <c r="H30" s="67">
         <f t="shared" si="2"/>
-        <v>2.4314275692739389</v>
-      </c>
-      <c r="J27" s="68">
-        <f>E27/$E$10</f>
-        <v>1.7562533420012651</v>
-      </c>
-      <c r="K27" s="68">
+        <v>2.4215299684542586</v>
+      </c>
+      <c r="I30" s="67">
         <f t="shared" si="3"/>
-        <v>1.7765544590358078</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="11">
-        <v>2009</v>
-      </c>
-      <c r="B28" s="8">
-        <v>18423</v>
-      </c>
-      <c r="C28" s="69">
-        <v>18911498.661000002</v>
-      </c>
-      <c r="D28" s="8">
-        <v>30395</v>
-      </c>
-      <c r="E28" s="67">
-        <v>316559.08342157438</v>
-      </c>
-      <c r="F28" s="67">
-        <v>225168.69189263161</v>
-      </c>
-      <c r="G28" s="68">
+        <v>1.6835627726288354</v>
+      </c>
+      <c r="J30" s="67">
+        <f t="shared" si="4"/>
+        <v>2.6652928796913362</v>
+      </c>
+      <c r="K30" s="67">
         <f t="shared" si="0"/>
-        <v>2.4215299684542586</v>
-      </c>
-      <c r="H28" s="68">
+        <v>1.8280391745410851</v>
+      </c>
+      <c r="L30" s="67">
+        <f t="shared" si="5"/>
+        <v>1.8560478935708336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B31" s="86">
+        <v>19710</v>
+      </c>
+      <c r="C31" s="85">
+        <v>19483512.697000001</v>
+      </c>
+      <c r="D31" s="86">
+        <v>33242</v>
+      </c>
+      <c r="E31" s="85">
+        <v>335054.119627323</v>
+      </c>
+      <c r="F31" s="85">
+        <v>241195.55491556902</v>
+      </c>
+      <c r="G31" s="85">
         <f t="shared" si="1"/>
-        <v>1.6835627726288354</v>
-      </c>
-      <c r="I28" s="68">
+        <v>19</v>
+      </c>
+      <c r="H31" s="67">
         <f t="shared" si="2"/>
-        <v>2.6652928796913362</v>
-      </c>
-      <c r="J28" s="68">
-        <f>E28/$E$10</f>
-        <v>1.8280391745410851</v>
-      </c>
-      <c r="K28" s="68">
+        <v>2.5906940063091484</v>
+      </c>
+      <c r="I31" s="67">
         <f t="shared" si="3"/>
-        <v>1.8560478935708336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="11">
-        <v>2010</v>
-      </c>
-      <c r="B29" s="8">
-        <v>19710</v>
-      </c>
-      <c r="C29" s="69">
-        <v>19483512.697000001</v>
-      </c>
-      <c r="D29" s="8">
-        <v>33242</v>
-      </c>
-      <c r="E29" s="67">
-        <v>335054.119627323</v>
-      </c>
-      <c r="F29" s="67">
-        <v>241195.55491556902</v>
-      </c>
-      <c r="G29" s="68">
+        <v>1.7344853120686496</v>
+      </c>
+      <c r="J31" s="67">
+        <f t="shared" si="4"/>
+        <v>2.9149421255699752</v>
+      </c>
+      <c r="K31" s="67">
         <f t="shared" si="0"/>
-        <v>2.5906940063091484</v>
-      </c>
-      <c r="H29" s="68">
+        <v>1.9348427776891224</v>
+      </c>
+      <c r="L31" s="67">
+        <f t="shared" si="5"/>
+        <v>1.9881560703526018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B32" s="86">
+        <v>20971</v>
+      </c>
+      <c r="C32" s="85">
+        <v>20081932.166999999</v>
+      </c>
+      <c r="D32" s="86">
+        <v>36299</v>
+      </c>
+      <c r="E32" s="85">
+        <v>351332.2253248248</v>
+      </c>
+      <c r="F32" s="85">
+        <v>254780.11595188442</v>
+      </c>
+      <c r="G32" s="85">
         <f t="shared" si="1"/>
-        <v>1.7344853120686496</v>
-      </c>
-      <c r="I29" s="68">
+        <v>20</v>
+      </c>
+      <c r="H32" s="67">
         <f t="shared" si="2"/>
-        <v>2.9149421255699752</v>
-      </c>
-      <c r="J29" s="68">
-        <f>E29/$E$10</f>
-        <v>1.9348427776891224</v>
-      </c>
-      <c r="K29" s="68">
+        <v>2.7564405888538381</v>
+      </c>
+      <c r="I32" s="67">
         <f t="shared" si="3"/>
-        <v>1.9881560703526018</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="11">
-        <v>2011</v>
-      </c>
-      <c r="B30" s="8">
-        <v>20971</v>
-      </c>
-      <c r="C30" s="69">
-        <v>20081932.166999999</v>
-      </c>
-      <c r="D30" s="8">
-        <v>36299</v>
-      </c>
-      <c r="E30" s="67">
-        <v>351332.2253248248</v>
-      </c>
-      <c r="F30" s="67">
-        <v>254780.11595188442</v>
-      </c>
-      <c r="G30" s="68">
+        <v>1.7877585486411658</v>
+      </c>
+      <c r="J32" s="67">
+        <f t="shared" si="4"/>
+        <v>3.1830059628200633</v>
+      </c>
+      <c r="K32" s="67">
         <f t="shared" si="0"/>
-        <v>2.7564405888538381</v>
-      </c>
-      <c r="H30" s="68">
-        <f t="shared" si="1"/>
-        <v>1.7877585486411658</v>
-      </c>
-      <c r="I30" s="68">
-        <f t="shared" si="2"/>
-        <v>3.1830059628200633</v>
-      </c>
-      <c r="J30" s="68">
-        <f>E30/$E$10</f>
         <v>2.0288442341651796</v>
       </c>
-      <c r="K30" s="68">
-        <f t="shared" si="3"/>
+      <c r="L32" s="67">
+        <f t="shared" si="5"/>
         <v>2.1001325431233382</v>
       </c>
     </row>
-    <row r="34" spans="2:24">
-      <c r="B34" s="70"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
+    <row r="36" spans="2:25">
+      <c r="B36" s="68"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="15" t="str">
+        <f>'Tanzania Workbook'!G9</f>
+        <v>iYear</v>
+      </c>
+      <c r="B1" s="15" t="str">
+        <f>'Tanzania Workbook'!H9</f>
+        <v>iGDP</v>
+      </c>
+      <c r="C1" s="15" t="str">
+        <f>'Tanzania Workbook'!I9</f>
+        <v>iLabor</v>
+      </c>
+      <c r="D1" s="15" t="str">
+        <f>'Tanzania Workbook'!J9</f>
+        <v>iCapStk</v>
+      </c>
+      <c r="E1" s="15" t="str">
+        <f>'Tanzania Workbook'!K9</f>
+        <v>iQ</v>
+      </c>
+      <c r="F1" s="15" t="str">
+        <f>'Tanzania Workbook'!L9</f>
+        <v>iX</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="87">
+        <f>'Tanzania Workbook'!G12</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="88">
+        <f>'Tanzania Workbook'!H12</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="88">
+        <f>'Tanzania Workbook'!I12</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="88">
+        <f>'Tanzania Workbook'!J12</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="88">
+        <f>'Tanzania Workbook'!K12</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="88">
+        <f>'Tanzania Workbook'!L12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="87">
+        <f>'Tanzania Workbook'!G13</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="88">
+        <f>'Tanzania Workbook'!H13</f>
+        <v>1.0059148264984228</v>
+      </c>
+      <c r="C3" s="88">
+        <f>'Tanzania Workbook'!I13</f>
+        <v>1.0210508656820274</v>
+      </c>
+      <c r="D3" s="88">
+        <f>'Tanzania Workbook'!J13</f>
+        <v>1.0783058575938267</v>
+      </c>
+      <c r="E3" s="88">
+        <f>'Tanzania Workbook'!K13</f>
+        <v>1.0310489836747303</v>
+      </c>
+      <c r="F3" s="88">
+        <f>'Tanzania Workbook'!L13</f>
+        <v>1.036398872643332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="87">
+        <f>'Tanzania Workbook'!G14</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="88">
+        <f>'Tanzania Workbook'!H14</f>
+        <v>1.0180073606729758</v>
+      </c>
+      <c r="C4" s="88">
+        <f>'Tanzania Workbook'!I14</f>
+        <v>1.0556153313366927</v>
+      </c>
+      <c r="D4" s="88">
+        <f>'Tanzania Workbook'!J14</f>
+        <v>1.1341634514205541</v>
+      </c>
+      <c r="E4" s="88">
+        <f>'Tanzania Workbook'!K14</f>
+        <v>1.0703722014418107</v>
+      </c>
+      <c r="F4" s="88">
+        <f>'Tanzania Workbook'!L14</f>
+        <v>1.0770704025942319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="87">
+        <f>'Tanzania Workbook'!G15</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="88">
+        <f>'Tanzania Workbook'!H15</f>
+        <v>1.034043112513144</v>
+      </c>
+      <c r="C5" s="88">
+        <f>'Tanzania Workbook'!I15</f>
+        <v>1.1099907940373888</v>
+      </c>
+      <c r="D5" s="88">
+        <f>'Tanzania Workbook'!J15</f>
+        <v>1.1878288319887758</v>
+      </c>
+      <c r="E5" s="88">
+        <f>'Tanzania Workbook'!K15</f>
+        <v>1.0643096696382963</v>
+      </c>
+      <c r="F5" s="88">
+        <f>'Tanzania Workbook'!L15</f>
+        <v>1.0385066884176852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="87">
+        <f>'Tanzania Workbook'!G16</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="88">
+        <f>'Tanzania Workbook'!H16</f>
+        <v>1.0708464773922186</v>
+      </c>
+      <c r="C6" s="88">
+        <f>'Tanzania Workbook'!I16</f>
+        <v>1.143580093612782</v>
+      </c>
+      <c r="D6" s="88">
+        <f>'Tanzania Workbook'!J16</f>
+        <v>1.2178183093651351</v>
+      </c>
+      <c r="E6" s="88">
+        <f>'Tanzania Workbook'!K16</f>
+        <v>1.0796543342633296</v>
+      </c>
+      <c r="F6" s="88">
+        <f>'Tanzania Workbook'!L16</f>
+        <v>1.0424289423472017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="87">
+        <f>'Tanzania Workbook'!G17</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="88">
+        <f>'Tanzania Workbook'!H17</f>
+        <v>1.1196109358569926</v>
+      </c>
+      <c r="C7" s="88">
+        <f>'Tanzania Workbook'!I17</f>
+        <v>1.1756384700676845</v>
+      </c>
+      <c r="D7" s="88">
+        <f>'Tanzania Workbook'!J17</f>
+        <v>1.2428095405121009</v>
+      </c>
+      <c r="E7" s="88">
+        <f>'Tanzania Workbook'!K17</f>
+        <v>1.1120511867626259</v>
+      </c>
+      <c r="F7" s="88">
+        <f>'Tanzania Workbook'!L17</f>
+        <v>1.0720365548940087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="87">
+        <f>'Tanzania Workbook'!G18</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="88">
+        <f>'Tanzania Workbook'!H18</f>
+        <v>1.159043112513144</v>
+      </c>
+      <c r="C8" s="88">
+        <f>'Tanzania Workbook'!I18</f>
+        <v>1.206546229055788</v>
+      </c>
+      <c r="D8" s="88">
+        <f>'Tanzania Workbook'!J18</f>
+        <v>1.2663977551736232</v>
+      </c>
+      <c r="E8" s="88">
+        <f>'Tanzania Workbook'!K18</f>
+        <v>1.1052881107020349</v>
+      </c>
+      <c r="F8" s="88">
+        <f>'Tanzania Workbook'!L18</f>
+        <v>1.0454564094484575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="87">
+        <f>'Tanzania Workbook'!G19</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="88">
+        <f>'Tanzania Workbook'!H19</f>
+        <v>1.2020241850683491</v>
+      </c>
+      <c r="C9" s="88">
+        <f>'Tanzania Workbook'!I19</f>
+        <v>1.2210962860108654</v>
+      </c>
+      <c r="D9" s="88">
+        <f>'Tanzania Workbook'!J19</f>
+        <v>1.3040161346895827</v>
+      </c>
+      <c r="E9" s="88">
+        <f>'Tanzania Workbook'!K19</f>
+        <v>1.1547949558395725</v>
+      </c>
+      <c r="F9" s="88">
+        <f>'Tanzania Workbook'!L19</f>
+        <v>1.1080088892109301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="87">
+        <f>'Tanzania Workbook'!G20</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="88">
+        <f>'Tanzania Workbook'!H20</f>
+        <v>1.2602523659305993</v>
+      </c>
+      <c r="C10" s="88">
+        <f>'Tanzania Workbook'!I20</f>
+        <v>1.2515828710931032</v>
+      </c>
+      <c r="D10" s="88">
+        <f>'Tanzania Workbook'!J20</f>
+        <v>1.3468081374956156</v>
+      </c>
+      <c r="E10" s="88">
+        <f>'Tanzania Workbook'!K20</f>
+        <v>1.1892406572595899</v>
+      </c>
+      <c r="F10" s="88">
+        <f>'Tanzania Workbook'!L20</f>
+        <v>1.1421767273390644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="87">
+        <f>'Tanzania Workbook'!G21</f>
+        <v>9</v>
+      </c>
+      <c r="B11" s="88">
+        <f>'Tanzania Workbook'!H21</f>
+        <v>1.3224237644584649</v>
+      </c>
+      <c r="C11" s="88">
+        <f>'Tanzania Workbook'!I21</f>
+        <v>1.2832842687413721</v>
+      </c>
+      <c r="D11" s="88">
+        <f>'Tanzania Workbook'!J21</f>
+        <v>1.3944230094703614</v>
+      </c>
+      <c r="E11" s="88">
+        <f>'Tanzania Workbook'!K21</f>
+        <v>1.2041377979550303</v>
+      </c>
+      <c r="F11" s="88">
+        <f>'Tanzania Workbook'!L21</f>
+        <v>1.1462936922530851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="87">
+        <f>'Tanzania Workbook'!G22</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="88">
+        <f>'Tanzania Workbook'!H22</f>
+        <v>1.4016824395373291</v>
+      </c>
+      <c r="C12" s="88">
+        <f>'Tanzania Workbook'!I22</f>
+        <v>1.3164204285711589</v>
+      </c>
+      <c r="D12" s="88">
+        <f>'Tanzania Workbook'!J22</f>
+        <v>1.4558049807085234</v>
+      </c>
+      <c r="E12" s="88">
+        <f>'Tanzania Workbook'!K22</f>
+        <v>1.2880636526808129</v>
+      </c>
+      <c r="F12" s="88">
+        <f>'Tanzania Workbook'!L22</f>
+        <v>1.252139604498437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="87">
+        <f>'Tanzania Workbook'!G23</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="88">
+        <f>'Tanzania Workbook'!H23</f>
+        <v>1.5021030494216614</v>
+      </c>
+      <c r="C13" s="88">
+        <f>'Tanzania Workbook'!I23</f>
+        <v>1.3684776113712027</v>
+      </c>
+      <c r="D13" s="88">
+        <f>'Tanzania Workbook'!J23</f>
+        <v>1.5255173623290075</v>
+      </c>
+      <c r="E13" s="88">
+        <f>'Tanzania Workbook'!K23</f>
+        <v>1.3549104649775128</v>
+      </c>
+      <c r="F13" s="88">
+        <f>'Tanzania Workbook'!L23</f>
+        <v>1.3238372286243942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="87">
+        <f>'Tanzania Workbook'!G24</f>
+        <v>12</v>
+      </c>
+      <c r="B14" s="88">
+        <f>'Tanzania Workbook'!H24</f>
+        <v>1.6055467928496319</v>
+      </c>
+      <c r="C14" s="88">
+        <f>'Tanzania Workbook'!I24</f>
+        <v>1.4229926061957845</v>
+      </c>
+      <c r="D14" s="88">
+        <f>'Tanzania Workbook'!J24</f>
+        <v>1.6142581550333217</v>
+      </c>
+      <c r="E14" s="88">
+        <f>'Tanzania Workbook'!K24</f>
+        <v>1.3879762171513219</v>
+      </c>
+      <c r="F14" s="88">
+        <f>'Tanzania Workbook'!L24</f>
+        <v>1.3437277175678031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="87">
+        <f>'Tanzania Workbook'!G25</f>
+        <v>13</v>
+      </c>
+      <c r="B15" s="88">
+        <f>'Tanzania Workbook'!H25</f>
+        <v>1.7312039957939012</v>
+      </c>
+      <c r="C15" s="88">
+        <f>'Tanzania Workbook'!I25</f>
+        <v>1.4616215628210345</v>
+      </c>
+      <c r="D15" s="88">
+        <f>'Tanzania Workbook'!J25</f>
+        <v>1.7172044896527534</v>
+      </c>
+      <c r="E15" s="88">
+        <f>'Tanzania Workbook'!K25</f>
+        <v>1.4426681154581782</v>
+      </c>
+      <c r="F15" s="88">
+        <f>'Tanzania Workbook'!L25</f>
+        <v>1.4050247874690565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="87">
+        <f>'Tanzania Workbook'!G26</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="88">
+        <f>'Tanzania Workbook'!H26</f>
+        <v>1.8588328075709779</v>
+      </c>
+      <c r="C16" s="88">
+        <f>'Tanzania Workbook'!I26</f>
+        <v>1.5020071213170048</v>
+      </c>
+      <c r="D16" s="88">
+        <f>'Tanzania Workbook'!J26</f>
+        <v>1.8532094002104524</v>
+      </c>
+      <c r="E16" s="88">
+        <f>'Tanzania Workbook'!K26</f>
+        <v>1.5215078285209578</v>
+      </c>
+      <c r="F16" s="88">
+        <f>'Tanzania Workbook'!L26</f>
+        <v>1.502544463388968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="87">
+        <f>'Tanzania Workbook'!G27</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="88">
+        <f>'Tanzania Workbook'!H27</f>
+        <v>1.9840956887486856</v>
+      </c>
+      <c r="C17" s="88">
+        <f>'Tanzania Workbook'!I27</f>
+        <v>1.5442689594453047</v>
+      </c>
+      <c r="D17" s="88">
+        <f>'Tanzania Workbook'!J27</f>
+        <v>2.0208698702209751</v>
+      </c>
+      <c r="E17" s="88">
+        <f>'Tanzania Workbook'!K27</f>
+        <v>1.5620745995776157</v>
+      </c>
+      <c r="F17" s="88">
+        <f>'Tanzania Workbook'!L27</f>
+        <v>1.5408789848153588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="87">
+        <f>'Tanzania Workbook'!G28</f>
+        <v>16</v>
+      </c>
+      <c r="B18" s="88">
+        <f>'Tanzania Workbook'!H28</f>
+        <v>2.1259200841219767</v>
+      </c>
+      <c r="C18" s="88">
+        <f>'Tanzania Workbook'!I28</f>
+        <v>1.5885418403996812</v>
+      </c>
+      <c r="D18" s="88">
+        <f>'Tanzania Workbook'!J28</f>
+        <v>2.2198351455629606</v>
+      </c>
+      <c r="E18" s="88">
+        <f>'Tanzania Workbook'!K28</f>
+        <v>1.6875312416589288</v>
+      </c>
+      <c r="F18" s="88">
+        <f>'Tanzania Workbook'!L28</f>
+        <v>1.6997700309861186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="87">
+        <f>'Tanzania Workbook'!G29</f>
+        <v>17</v>
+      </c>
+      <c r="B19" s="88">
+        <f>'Tanzania Workbook'!H29</f>
+        <v>2.2840431125131442</v>
+      </c>
+      <c r="C19" s="88">
+        <f>'Tanzania Workbook'!I29</f>
+        <v>1.6349385181151996</v>
+      </c>
+      <c r="D19" s="88">
+        <f>'Tanzania Workbook'!J29</f>
+        <v>2.4314275692739389</v>
+      </c>
+      <c r="E19" s="88">
+        <f>'Tanzania Workbook'!K29</f>
+        <v>1.7562533420012651</v>
+      </c>
+      <c r="F19" s="88">
+        <f>'Tanzania Workbook'!L29</f>
+        <v>1.7765544590358078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="87">
+        <f>'Tanzania Workbook'!G30</f>
+        <v>18</v>
+      </c>
+      <c r="B20" s="88">
+        <f>'Tanzania Workbook'!H30</f>
+        <v>2.4215299684542586</v>
+      </c>
+      <c r="C20" s="88">
+        <f>'Tanzania Workbook'!I30</f>
+        <v>1.6835627726288354</v>
+      </c>
+      <c r="D20" s="88">
+        <f>'Tanzania Workbook'!J30</f>
+        <v>2.6652928796913362</v>
+      </c>
+      <c r="E20" s="88">
+        <f>'Tanzania Workbook'!K30</f>
+        <v>1.8280391745410851</v>
+      </c>
+      <c r="F20" s="88">
+        <f>'Tanzania Workbook'!L30</f>
+        <v>1.8560478935708336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="87">
+        <f>'Tanzania Workbook'!G31</f>
+        <v>19</v>
+      </c>
+      <c r="B21" s="88">
+        <f>'Tanzania Workbook'!H31</f>
+        <v>2.5906940063091484</v>
+      </c>
+      <c r="C21" s="88">
+        <f>'Tanzania Workbook'!I31</f>
+        <v>1.7344853120686496</v>
+      </c>
+      <c r="D21" s="88">
+        <f>'Tanzania Workbook'!J31</f>
+        <v>2.9149421255699752</v>
+      </c>
+      <c r="E21" s="88">
+        <f>'Tanzania Workbook'!K31</f>
+        <v>1.9348427776891224</v>
+      </c>
+      <c r="F21" s="88">
+        <f>'Tanzania Workbook'!L31</f>
+        <v>1.9881560703526018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="87">
+        <f>'Tanzania Workbook'!G32</f>
+        <v>20</v>
+      </c>
+      <c r="B22" s="88">
+        <f>'Tanzania Workbook'!H32</f>
+        <v>2.7564405888538381</v>
+      </c>
+      <c r="C22" s="88">
+        <f>'Tanzania Workbook'!I32</f>
+        <v>1.7877585486411658</v>
+      </c>
+      <c r="D22" s="88">
+        <f>'Tanzania Workbook'!J32</f>
+        <v>3.1830059628200633</v>
+      </c>
+      <c r="E22" s="88">
+        <f>'Tanzania Workbook'!K32</f>
+        <v>2.0288442341651796</v>
+      </c>
+      <c r="F22" s="88">
+        <f>'Tanzania Workbook'!L32</f>
+        <v>2.1001325431233382</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA27"/>
   <sheetViews>
@@ -5623,17 +6416,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="5" customFormat="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="5" customFormat="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="71" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:53">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="71" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5694,19 +6487,19 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="5"/>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="74" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5714,11 +6507,11 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="5">
@@ -6194,7 +6987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG50"/>
   <sheetViews>
@@ -6518,140 +7311,140 @@
       </c>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="80" t="s">
+      <c r="D28" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="80" t="s">
+      <c r="E28" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="80" t="s">
+      <c r="F28" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="80" t="s">
+      <c r="I28" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="J28" s="80" t="s">
+      <c r="J28" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="K28" s="80" t="s">
+      <c r="K28" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="78" t="s">
+      <c r="L28" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="M28" s="82" t="s">
+      <c r="M28" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="N28" s="80" t="s">
+      <c r="N28" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="O28" s="80" t="s">
+      <c r="O28" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="P28" s="78" t="s">
+      <c r="P28" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="Q28" s="82" t="s">
+      <c r="Q28" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="R28" s="80" t="s">
+      <c r="R28" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="S28" s="80" t="s">
+      <c r="S28" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="T28" s="80" t="s">
+      <c r="T28" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="U28" s="80" t="s">
+      <c r="U28" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="V28" s="80" t="s">
+      <c r="V28" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="W28" s="80" t="s">
+      <c r="W28" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="X28" s="84" t="s">
+      <c r="X28" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="Y28" s="78" t="s">
+      <c r="Y28" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="Z28" s="82" t="s">
+      <c r="Z28" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="AA28" s="80" t="s">
+      <c r="AA28" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="AB28" s="80" t="s">
+      <c r="AB28" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="AC28" s="80" t="s">
+      <c r="AC28" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="AD28" s="80" t="s">
+      <c r="AD28" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="AE28" s="80" t="s">
+      <c r="AE28" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="AF28" s="80" t="s">
+      <c r="AF28" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="AG28" s="84" t="s">
+      <c r="AG28" s="79" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="79"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="81"/>
-      <c r="W29" s="81"/>
-      <c r="X29" s="85"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="83"/>
-      <c r="AA29" s="81"/>
-      <c r="AB29" s="81"/>
-      <c r="AC29" s="81"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="81"/>
-      <c r="AF29" s="81"/>
-      <c r="AG29" s="85"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="84"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="80"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="38">
@@ -9086,24 +9879,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="O28:O29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
@@ -9114,11 +9894,24 @@
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="N28:N29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Excel Workbooks/TanzaniaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/TanzaniaDataWorkbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="22240" windowHeight="17460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tanzania Workbook" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,17 @@
     <sheet name="Employment calcs" sheetId="2" r:id="rId4"/>
     <sheet name="Exergy calcs" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
   <si>
     <t>Notes</t>
   </si>
@@ -828,6 +833,18 @@
   <si>
     <t>iX</t>
   </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>iU</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
@@ -838,9 +855,9 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,6 +1135,22 @@
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1606,11 +1639,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1626,7 +1659,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1635,12 +1668,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1649,7 +1682,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1658,7 +1691,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
@@ -1671,7 +1704,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1682,11 +1715,11 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1709,7 +1742,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="481">
+  <cellStyleXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2197,6 +2230,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2374,42 +2411,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2419,11 +2420,47 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="481">
+  <cellStyles count="485">
     <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="42"/>
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 10" xfId="54"/>
@@ -2737,6 +2774,8 @@
     <cellStyle name="Explanatory Text 7" xfId="328"/>
     <cellStyle name="Explanatory Text 8" xfId="329"/>
     <cellStyle name="Explanatory Text 9" xfId="330"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
     <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="44"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Good 10" xfId="331"/>
@@ -2811,6 +2850,8 @@
     <cellStyle name="Heading 4 7" xfId="378"/>
     <cellStyle name="Heading 4 8" xfId="379"/>
     <cellStyle name="Heading 4 9" xfId="380"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Input 10" xfId="381"/>
     <cellStyle name="Input 11" xfId="382"/>
@@ -2955,8 +2996,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32280357157906364"/>
-          <c:y val="2.3023152820437525E-2"/>
+          <c:x val="0.322803571579064"/>
+          <c:y val="0.0230231528204375"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2968,10 +3009,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.41594409013005E-2"/>
-          <c:y val="8.0849507223328482E-2"/>
-          <c:w val="0.89640936004920879"/>
-          <c:h val="0.84215875606803925"/>
+          <c:x val="0.0741594409013005"/>
+          <c:y val="0.0808495072233285"/>
+          <c:w val="0.896409360049209"/>
+          <c:h val="0.842158756068039"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3000,67 +3041,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3072,67 +3113,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0059148264984228</c:v>
+                  <c:v>1.005914826498423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0180073606729758</c:v>
+                  <c:v>1.018007360672976</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.034043112513144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0708464773922186</c:v>
+                  <c:v>1.070846477392219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1196109358569926</c:v>
+                  <c:v>1.119610935856993</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.159043112513144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2020241850683491</c:v>
+                  <c:v>1.202024185068349</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2602523659305993</c:v>
+                  <c:v>1.2602523659306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3224237644584649</c:v>
+                  <c:v>1.322423764458465</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4016824395373291</c:v>
+                  <c:v>1.40168243953733</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5021030494216614</c:v>
+                  <c:v>1.502103049421661</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6055467928496319</c:v>
+                  <c:v>1.605546792849632</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7312039957939012</c:v>
+                  <c:v>1.731203995793901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8588328075709779</c:v>
+                  <c:v>1.858832807570978</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9840956887486856</c:v>
+                  <c:v>1.984095688748686</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1259200841219767</c:v>
+                  <c:v>2.125920084121976</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2840431125131442</c:v>
+                  <c:v>2.284043112513144</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4215299684542586</c:v>
+                  <c:v>2.421529968454259</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.5906940063091484</c:v>
+                  <c:v>2.590694006309148</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7564405888538381</c:v>
+                  <c:v>2.756440588853838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3164,67 +3205,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3236,67 +3277,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0783058575938267</c:v>
+                  <c:v>1.078305857593827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1341634514205541</c:v>
+                  <c:v>1.134163451420554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1878288319887758</c:v>
+                  <c:v>1.187828831988776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2178183093651351</c:v>
+                  <c:v>1.217818309365135</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2428095405121009</c:v>
+                  <c:v>1.242809540512101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2663977551736232</c:v>
+                  <c:v>1.266397755173623</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3040161346895827</c:v>
+                  <c:v>1.304016134689583</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3468081374956156</c:v>
+                  <c:v>1.346808137495616</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3944230094703614</c:v>
+                  <c:v>1.394423009470361</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4558049807085234</c:v>
+                  <c:v>1.455804980708523</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5255173623290075</c:v>
+                  <c:v>1.525517362329007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6142581550333217</c:v>
+                  <c:v>1.614258155033322</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7172044896527534</c:v>
+                  <c:v>1.717204489652753</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8532094002104524</c:v>
+                  <c:v>1.853209400210452</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0208698702209751</c:v>
+                  <c:v>2.020869870220975</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2198351455629606</c:v>
+                  <c:v>2.219835145562961</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4314275692739389</c:v>
+                  <c:v>2.431427569273939</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.6652928796913362</c:v>
+                  <c:v>2.665292879691336</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9149421255699752</c:v>
+                  <c:v>2.914942125569975</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.1830059628200633</c:v>
+                  <c:v>3.183005962820063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3326,67 +3367,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3398,67 +3439,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0210508656820274</c:v>
+                  <c:v>1.021050865682027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0556153313366927</c:v>
+                  <c:v>1.055615331336693</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1099907940373888</c:v>
+                  <c:v>1.109990794037389</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.143580093612782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1756384700676845</c:v>
+                  <c:v>1.175638470067685</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.206546229055788</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2210962860108654</c:v>
+                  <c:v>1.221096286010865</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2515828710931032</c:v>
+                  <c:v>1.251582871093103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2832842687413721</c:v>
+                  <c:v>1.283284268741372</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3164204285711589</c:v>
+                  <c:v>1.316420428571159</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3684776113712027</c:v>
+                  <c:v>1.368477611371203</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4229926061957845</c:v>
+                  <c:v>1.422992606195784</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4616215628210345</c:v>
+                  <c:v>1.461621562821034</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5020071213170048</c:v>
+                  <c:v>1.502007121317005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5442689594453047</c:v>
+                  <c:v>1.544268959445305</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5885418403996812</c:v>
+                  <c:v>1.588541840399681</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6349385181151996</c:v>
+                  <c:v>1.6349385181152</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6835627726288354</c:v>
+                  <c:v>1.683562772628835</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7344853120686496</c:v>
+                  <c:v>1.73448531206865</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7877585486411658</c:v>
+                  <c:v>1.787758548641166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3490,67 +3531,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3562,67 +3603,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.036398872643332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0770704025942319</c:v>
+                  <c:v>1.077070402594232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0385066884176852</c:v>
+                  <c:v>1.038506688417685</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0424289423472017</c:v>
+                  <c:v>1.042428942347202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0720365548940087</c:v>
+                  <c:v>1.072036554894009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0454564094484575</c:v>
+                  <c:v>1.045456409448458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1080088892109301</c:v>
+                  <c:v>1.10800888921093</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1421767273390644</c:v>
+                  <c:v>1.142176727339064</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1462936922530851</c:v>
+                  <c:v>1.146293692253085</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.252139604498437</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3238372286243942</c:v>
+                  <c:v>1.323837228624394</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3437277175678031</c:v>
+                  <c:v>1.343727717567803</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4050247874690565</c:v>
+                  <c:v>1.405024787469056</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.502544463388968</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5408789848153588</c:v>
+                  <c:v>1.540878984815359</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6997700309861186</c:v>
+                  <c:v>1.699770030986118</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7765544590358078</c:v>
+                  <c:v>1.776554459035808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8560478935708336</c:v>
+                  <c:v>1.856047893570833</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9881560703526018</c:v>
+                  <c:v>1.988156070352602</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1001325431233382</c:v>
+                  <c:v>2.100132543123338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3656,67 +3697,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3728,67 +3769,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0310489836747303</c:v>
+                  <c:v>1.03104898367473</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0703722014418107</c:v>
+                  <c:v>1.070372201441811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0643096696382963</c:v>
+                  <c:v>1.064309669638296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0796543342633296</c:v>
+                  <c:v>1.07965433426333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1120511867626259</c:v>
+                  <c:v>1.112051186762626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1052881107020349</c:v>
+                  <c:v>1.105288110702035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1547949558395725</c:v>
+                  <c:v>1.154794955839572</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1892406572595899</c:v>
+                  <c:v>1.18924065725959</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2041377979550303</c:v>
+                  <c:v>1.20413779795503</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2880636526808129</c:v>
+                  <c:v>1.288063652680813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3549104649775128</c:v>
+                  <c:v>1.354910464977513</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3879762171513219</c:v>
+                  <c:v>1.387976217151322</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4426681154581782</c:v>
+                  <c:v>1.442668115458178</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5215078285209578</c:v>
+                  <c:v>1.521507828520958</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5620745995776157</c:v>
+                  <c:v>1.562074599577616</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6875312416589288</c:v>
+                  <c:v>1.687531241658929</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7562533420012651</c:v>
+                  <c:v>1.756253342001265</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8280391745410851</c:v>
+                  <c:v>1.828039174541085</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9348427776891224</c:v>
+                  <c:v>1.934842777689122</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0288442341651796</c:v>
+                  <c:v>2.02884423416518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3803,11 +3844,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47526656"/>
-        <c:axId val="78761984"/>
+        <c:axId val="-2143428936"/>
+        <c:axId val="-2143416568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47526656"/>
+        <c:axId val="-2143428936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3840,12 +3881,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78761984"/>
+        <c:crossAx val="-2143416568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78761984"/>
+        <c:axId val="-2143416568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3878,7 +3919,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47526656"/>
+        <c:crossAx val="-2143428936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4565,30 +4606,30 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="68" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="71" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="68" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="71" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="71" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" customWidth="1"/>
-    <col min="14" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="71" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
+    <col min="13" max="13" width="24.1640625" customWidth="1"/>
+    <col min="14" max="25" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="5" customFormat="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="70"/>
       <c r="G1" s="71"/>
       <c r="K1" s="71"/>
@@ -4795,35 +4836,35 @@
     </row>
     <row r="10" spans="1:56" ht="15" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="77" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="72"/>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="73" t="s">
+      <c r="L10" s="77" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4831,38 +4872,38 @@
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
     </row>
     <row r="12" spans="1:56">
       <c r="A12" s="11">
         <v>1991</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="74">
         <v>7608</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="73">
         <v>11233022.592599999</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="74">
         <v>11404</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="73">
         <v>173168.65405854557</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="73">
         <v>121316.20777275937</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G12" s="73">
         <f>A12-$A$12</f>
         <v>0</v>
       </c>
@@ -4891,22 +4932,22 @@
       <c r="A13" s="11">
         <v>1992</v>
       </c>
-      <c r="B13" s="86">
+      <c r="B13" s="74">
         <v>7653</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="73">
         <v>11469487.442400001</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="74">
         <v>12297</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="73">
         <v>178545.36477138437</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="73">
         <v>125731.98096905203</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="73">
         <f t="shared" ref="G13:G32" si="1">A13-$A$12</f>
         <v>1</v>
       </c>
@@ -4935,22 +4976,22 @@
       <c r="A14" s="11">
         <v>1993</v>
       </c>
-      <c r="B14" s="86">
+      <c r="B14" s="74">
         <v>7745</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="73">
         <v>11857750.866000002</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="74">
         <v>12934</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="73">
         <v>185354.91346536076</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F14" s="73">
         <v>130666.09674701143</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G14" s="73">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4979,22 +5020,22 @@
       <c r="A15" s="11">
         <v>1994</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B15" s="74">
         <v>7867</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="73">
         <v>12468551.667000001</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="74">
         <v>13546</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="73">
         <v>184305.07299275906</v>
       </c>
-      <c r="F15" s="85">
+      <c r="F15" s="73">
         <v>125987.69318548018</v>
       </c>
-      <c r="G15" s="85">
+      <c r="G15" s="73">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5023,22 +5064,22 @@
       <c r="A16" s="11">
         <v>1995</v>
       </c>
-      <c r="B16" s="86">
+      <c r="B16" s="74">
         <v>8147</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="73">
         <v>12845861.028000003</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="74">
         <v>13888</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="73">
         <v>186962.28791285586</v>
       </c>
-      <c r="F16" s="85">
+      <c r="F16" s="73">
         <v>126463.52615813092</v>
       </c>
-      <c r="G16" s="85">
+      <c r="G16" s="73">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5067,22 +5108,22 @@
       <c r="A17" s="11">
         <v>1996</v>
       </c>
-      <c r="B17" s="86">
+      <c r="B17" s="74">
         <v>8518</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="73">
         <v>13205973.494999999</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="74">
         <v>14173</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="73">
         <v>192572.40725589223</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="73">
         <v>130055.40943351472</v>
       </c>
-      <c r="G17" s="85">
+      <c r="G17" s="73">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -5111,22 +5152,22 @@
       <c r="A18" s="11">
         <v>1997</v>
       </c>
-      <c r="B18" s="86">
+      <c r="B18" s="74">
         <v>8818</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="73">
         <v>13553161.050000001</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="74">
         <v>14442</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="73">
         <v>191401.25447718409</v>
       </c>
-      <c r="F18" s="85">
+      <c r="F18" s="73">
         <v>126830.80698601206</v>
       </c>
-      <c r="G18" s="85">
+      <c r="G18" s="73">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -5155,22 +5196,22 @@
       <c r="A19" s="11">
         <v>1998</v>
       </c>
-      <c r="B19" s="86">
+      <c r="B19" s="74">
         <v>9145</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="73">
         <v>13716602.168500001</v>
       </c>
-      <c r="D19" s="86">
+      <c r="D19" s="74">
         <v>14871</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="73">
         <v>199974.28821633634</v>
       </c>
-      <c r="F19" s="85">
+      <c r="F19" s="73">
         <v>134419.43661757751</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="73">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -5199,22 +5240,22 @@
       <c r="A20" s="11">
         <v>1999</v>
       </c>
-      <c r="B20" s="86">
+      <c r="B20" s="74">
         <v>9588</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C20" s="73">
         <v>14059058.6675</v>
       </c>
-      <c r="D20" s="86">
+      <c r="D20" s="74">
         <v>15359</v>
       </c>
-      <c r="E20" s="85">
+      <c r="E20" s="73">
         <v>205939.20396934327</v>
       </c>
-      <c r="F20" s="85">
+      <c r="F20" s="73">
         <v>138564.54916707627</v>
       </c>
-      <c r="G20" s="85">
+      <c r="G20" s="73">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -5243,22 +5284,22 @@
       <c r="A21" s="11">
         <v>2000</v>
       </c>
-      <c r="B21" s="86">
+      <c r="B21" s="74">
         <v>10061</v>
       </c>
-      <c r="C21" s="85">
+      <c r="C21" s="73">
         <v>14415161.183500001</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="74">
         <v>15902</v>
       </c>
-      <c r="E21" s="85">
+      <c r="E21" s="73">
         <v>208518.92177289349</v>
       </c>
-      <c r="F21" s="85">
+      <c r="F21" s="73">
         <v>139064.00373797875</v>
       </c>
-      <c r="G21" s="85">
+      <c r="G21" s="73">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -5287,22 +5328,22 @@
       <c r="A22" s="11">
         <v>2001</v>
       </c>
-      <c r="B22" s="86">
+      <c r="B22" s="74">
         <v>10664</v>
       </c>
-      <c r="C22" s="85">
+      <c r="C22" s="73">
         <v>14787380.415500002</v>
       </c>
-      <c r="D22" s="86">
+      <c r="D22" s="74">
         <v>16602</v>
       </c>
-      <c r="E22" s="85">
+      <c r="E22" s="73">
         <v>223052.2490764703</v>
       </c>
-      <c r="F22" s="85">
+      <c r="F22" s="73">
         <v>151904.82841983312</v>
       </c>
-      <c r="G22" s="85">
+      <c r="G22" s="73">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5331,22 +5372,22 @@
       <c r="A23" s="11">
         <v>2002</v>
       </c>
-      <c r="B23" s="86">
+      <c r="B23" s="74">
         <v>11428</v>
       </c>
-      <c r="C23" s="85">
+      <c r="C23" s="73">
         <v>15372139.926000001</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="74">
         <v>17397</v>
       </c>
-      <c r="E23" s="85">
+      <c r="E23" s="73">
         <v>234628.02158999402</v>
       </c>
-      <c r="F23" s="85">
+      <c r="F23" s="73">
         <v>160602.91228511097</v>
       </c>
-      <c r="G23" s="85">
+      <c r="G23" s="73">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -5375,22 +5416,22 @@
       <c r="A24" s="11">
         <v>2003</v>
       </c>
-      <c r="B24" s="86">
+      <c r="B24" s="74">
         <v>12215</v>
       </c>
-      <c r="C24" s="85">
+      <c r="C24" s="73">
         <v>15984508.0945</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D24" s="74">
         <v>18409</v>
       </c>
-      <c r="E24" s="85">
+      <c r="E24" s="73">
         <v>240353.97338936597</v>
       </c>
-      <c r="F24" s="85">
+      <c r="F24" s="73">
         <v>163015.95097447131</v>
       </c>
-      <c r="G24" s="85">
+      <c r="G24" s="73">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -5419,22 +5460,22 @@
       <c r="A25" s="11">
         <v>2004</v>
       </c>
-      <c r="B25" s="86">
+      <c r="B25" s="74">
         <v>13171</v>
       </c>
-      <c r="C25" s="85">
+      <c r="C25" s="73">
         <v>16418428.037</v>
       </c>
-      <c r="D25" s="86">
+      <c r="D25" s="74">
         <v>19583</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="73">
         <v>249824.89580707112</v>
       </c>
-      <c r="F25" s="85">
+      <c r="F25" s="73">
         <v>170452.27904247312</v>
       </c>
-      <c r="G25" s="85">
+      <c r="G25" s="73">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -5463,22 +5504,22 @@
       <c r="A26" s="11">
         <v>2005</v>
       </c>
-      <c r="B26" s="86">
+      <c r="B26" s="74">
         <v>14142</v>
       </c>
-      <c r="C26" s="85">
+      <c r="C26" s="73">
         <v>16872079.928000003</v>
       </c>
-      <c r="D26" s="86">
+      <c r="D26" s="74">
         <v>21134</v>
       </c>
-      <c r="E26" s="85">
+      <c r="E26" s="73">
         <v>263477.46280451462</v>
       </c>
-      <c r="F26" s="85">
+      <c r="F26" s="73">
         <v>182282.99630830527</v>
       </c>
-      <c r="G26" s="85">
+      <c r="G26" s="73">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -5507,22 +5548,22 @@
       <c r="A27" s="11">
         <v>2006</v>
       </c>
-      <c r="B27" s="86">
+      <c r="B27" s="74">
         <v>15095</v>
       </c>
-      <c r="C27" s="85">
+      <c r="C27" s="73">
         <v>17346808.1105</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="74">
         <v>23046</v>
       </c>
-      <c r="E27" s="85">
+      <c r="E27" s="73">
         <v>270502.35594789725</v>
       </c>
-      <c r="F27" s="85">
+      <c r="F27" s="73">
         <v>186933.59507453861</v>
       </c>
-      <c r="G27" s="85">
+      <c r="G27" s="73">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -5551,22 +5592,22 @@
       <c r="A28" s="11">
         <v>2007</v>
       </c>
-      <c r="B28" s="86">
+      <c r="B28" s="74">
         <v>16174</v>
       </c>
-      <c r="C28" s="85">
+      <c r="C28" s="73">
         <v>17844126.3825</v>
       </c>
-      <c r="D28" s="86">
+      <c r="D28" s="74">
         <v>25315</v>
       </c>
-      <c r="E28" s="85">
+      <c r="E28" s="73">
         <v>292227.51379982289</v>
       </c>
-      <c r="F28" s="85">
+      <c r="F28" s="73">
         <v>206209.65424502161</v>
       </c>
-      <c r="G28" s="85">
+      <c r="G28" s="73">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -5595,22 +5636,22 @@
       <c r="A29" s="11">
         <v>2008</v>
       </c>
-      <c r="B29" s="86">
+      <c r="B29" s="74">
         <v>17377</v>
       </c>
-      <c r="C29" s="85">
+      <c r="C29" s="73">
         <v>18365301.311500002</v>
       </c>
-      <c r="D29" s="86">
+      <c r="D29" s="74">
         <v>27728</v>
       </c>
-      <c r="E29" s="85">
+      <c r="E29" s="73">
         <v>304128.02742018161</v>
       </c>
-      <c r="F29" s="85">
+      <c r="F29" s="73">
         <v>215524.84987201018</v>
       </c>
-      <c r="G29" s="85">
+      <c r="G29" s="73">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -5639,22 +5680,22 @@
       <c r="A30" s="11">
         <v>2009</v>
       </c>
-      <c r="B30" s="86">
+      <c r="B30" s="74">
         <v>18423</v>
       </c>
-      <c r="C30" s="85">
+      <c r="C30" s="73">
         <v>18911498.661000002</v>
       </c>
-      <c r="D30" s="86">
+      <c r="D30" s="74">
         <v>30395</v>
       </c>
-      <c r="E30" s="85">
+      <c r="E30" s="73">
         <v>316559.08342157438</v>
       </c>
-      <c r="F30" s="85">
+      <c r="F30" s="73">
         <v>225168.69189263161</v>
       </c>
-      <c r="G30" s="85">
+      <c r="G30" s="73">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -5683,22 +5724,22 @@
       <c r="A31" s="11">
         <v>2010</v>
       </c>
-      <c r="B31" s="86">
+      <c r="B31" s="74">
         <v>19710</v>
       </c>
-      <c r="C31" s="85">
+      <c r="C31" s="73">
         <v>19483512.697000001</v>
       </c>
-      <c r="D31" s="86">
+      <c r="D31" s="74">
         <v>33242</v>
       </c>
-      <c r="E31" s="85">
+      <c r="E31" s="73">
         <v>335054.119627323</v>
       </c>
-      <c r="F31" s="85">
+      <c r="F31" s="73">
         <v>241195.55491556902</v>
       </c>
-      <c r="G31" s="85">
+      <c r="G31" s="73">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -5727,22 +5768,22 @@
       <c r="A32" s="11">
         <v>2011</v>
       </c>
-      <c r="B32" s="86">
+      <c r="B32" s="74">
         <v>20971</v>
       </c>
-      <c r="C32" s="85">
+      <c r="C32" s="73">
         <v>20081932.166999999</v>
       </c>
-      <c r="D32" s="86">
+      <c r="D32" s="74">
         <v>36299</v>
       </c>
-      <c r="E32" s="85">
+      <c r="E32" s="73">
         <v>351332.2253248248</v>
       </c>
-      <c r="F32" s="85">
+      <c r="F32" s="73">
         <v>254780.11595188442</v>
       </c>
-      <c r="G32" s="85">
+      <c r="G32" s="73">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -5795,6 +5836,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:D11"/>
@@ -5802,599 +5847,828 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="9" width="8.83203125" style="15"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="15" t="str">
+        <f>'Tanzania Workbook'!A11</f>
+        <v>Year</v>
+      </c>
+      <c r="B1" s="15" t="str">
         <f>'Tanzania Workbook'!G9</f>
         <v>iYear</v>
       </c>
-      <c r="B1" s="15" t="str">
+      <c r="C1" s="15" t="str">
         <f>'Tanzania Workbook'!H9</f>
         <v>iGDP</v>
       </c>
-      <c r="C1" s="15" t="str">
+      <c r="D1" s="15" t="str">
         <f>'Tanzania Workbook'!I9</f>
         <v>iLabor</v>
       </c>
-      <c r="D1" s="15" t="str">
+      <c r="E1" s="15" t="str">
         <f>'Tanzania Workbook'!J9</f>
         <v>iCapStk</v>
       </c>
-      <c r="E1" s="15" t="str">
+      <c r="F1" s="15" t="str">
         <f>'Tanzania Workbook'!K9</f>
         <v>iQ</v>
       </c>
-      <c r="F1" s="15" t="str">
+      <c r="G1" s="15" t="str">
         <f>'Tanzania Workbook'!L9</f>
         <v>iX</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="87">
+      <c r="H1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="15">
+        <f>'Tanzania Workbook'!A12</f>
+        <v>1991</v>
+      </c>
+      <c r="B2" s="75">
         <f>'Tanzania Workbook'!G12</f>
         <v>0</v>
       </c>
-      <c r="B2" s="88">
+      <c r="C2" s="76">
         <f>'Tanzania Workbook'!H12</f>
         <v>1</v>
       </c>
-      <c r="C2" s="88">
+      <c r="D2" s="76">
         <f>'Tanzania Workbook'!I12</f>
         <v>1</v>
       </c>
-      <c r="D2" s="88">
+      <c r="E2" s="76">
         <f>'Tanzania Workbook'!J12</f>
         <v>1</v>
       </c>
-      <c r="E2" s="88">
+      <c r="F2" s="76">
         <f>'Tanzania Workbook'!K12</f>
         <v>1</v>
       </c>
-      <c r="F2" s="88">
+      <c r="G2" s="76">
         <f>'Tanzania Workbook'!L12</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="87">
+      <c r="H2" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="15">
+        <f>'Tanzania Workbook'!A13</f>
+        <v>1992</v>
+      </c>
+      <c r="B3" s="75">
         <f>'Tanzania Workbook'!G13</f>
         <v>1</v>
       </c>
-      <c r="B3" s="88">
+      <c r="C3" s="76">
         <f>'Tanzania Workbook'!H13</f>
         <v>1.0059148264984228</v>
       </c>
-      <c r="C3" s="88">
+      <c r="D3" s="76">
         <f>'Tanzania Workbook'!I13</f>
         <v>1.0210508656820274</v>
       </c>
-      <c r="D3" s="88">
+      <c r="E3" s="76">
         <f>'Tanzania Workbook'!J13</f>
         <v>1.0783058575938267</v>
       </c>
-      <c r="E3" s="88">
+      <c r="F3" s="76">
         <f>'Tanzania Workbook'!K13</f>
         <v>1.0310489836747303</v>
       </c>
-      <c r="F3" s="88">
+      <c r="G3" s="76">
         <f>'Tanzania Workbook'!L13</f>
         <v>1.036398872643332</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="87">
+      <c r="H3" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="15">
+        <f>'Tanzania Workbook'!A14</f>
+        <v>1993</v>
+      </c>
+      <c r="B4" s="75">
         <f>'Tanzania Workbook'!G14</f>
         <v>2</v>
       </c>
-      <c r="B4" s="88">
+      <c r="C4" s="76">
         <f>'Tanzania Workbook'!H14</f>
         <v>1.0180073606729758</v>
       </c>
-      <c r="C4" s="88">
+      <c r="D4" s="76">
         <f>'Tanzania Workbook'!I14</f>
         <v>1.0556153313366927</v>
       </c>
-      <c r="D4" s="88">
+      <c r="E4" s="76">
         <f>'Tanzania Workbook'!J14</f>
         <v>1.1341634514205541</v>
       </c>
-      <c r="E4" s="88">
+      <c r="F4" s="76">
         <f>'Tanzania Workbook'!K14</f>
         <v>1.0703722014418107</v>
       </c>
-      <c r="F4" s="88">
+      <c r="G4" s="76">
         <f>'Tanzania Workbook'!L14</f>
         <v>1.0770704025942319</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="87">
+      <c r="H4" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15">
+        <f>'Tanzania Workbook'!A15</f>
+        <v>1994</v>
+      </c>
+      <c r="B5" s="75">
         <f>'Tanzania Workbook'!G15</f>
         <v>3</v>
       </c>
-      <c r="B5" s="88">
+      <c r="C5" s="76">
         <f>'Tanzania Workbook'!H15</f>
         <v>1.034043112513144</v>
       </c>
-      <c r="C5" s="88">
+      <c r="D5" s="76">
         <f>'Tanzania Workbook'!I15</f>
         <v>1.1099907940373888</v>
       </c>
-      <c r="D5" s="88">
+      <c r="E5" s="76">
         <f>'Tanzania Workbook'!J15</f>
         <v>1.1878288319887758</v>
       </c>
-      <c r="E5" s="88">
+      <c r="F5" s="76">
         <f>'Tanzania Workbook'!K15</f>
         <v>1.0643096696382963</v>
       </c>
-      <c r="F5" s="88">
+      <c r="G5" s="76">
         <f>'Tanzania Workbook'!L15</f>
         <v>1.0385066884176852</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="87">
+      <c r="H5" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15">
+        <f>'Tanzania Workbook'!A16</f>
+        <v>1995</v>
+      </c>
+      <c r="B6" s="75">
         <f>'Tanzania Workbook'!G16</f>
         <v>4</v>
       </c>
-      <c r="B6" s="88">
+      <c r="C6" s="76">
         <f>'Tanzania Workbook'!H16</f>
         <v>1.0708464773922186</v>
       </c>
-      <c r="C6" s="88">
+      <c r="D6" s="76">
         <f>'Tanzania Workbook'!I16</f>
         <v>1.143580093612782</v>
       </c>
-      <c r="D6" s="88">
+      <c r="E6" s="76">
         <f>'Tanzania Workbook'!J16</f>
         <v>1.2178183093651351</v>
       </c>
-      <c r="E6" s="88">
+      <c r="F6" s="76">
         <f>'Tanzania Workbook'!K16</f>
         <v>1.0796543342633296</v>
       </c>
-      <c r="F6" s="88">
+      <c r="G6" s="76">
         <f>'Tanzania Workbook'!L16</f>
         <v>1.0424289423472017</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="87">
+      <c r="H6" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="15">
+        <f>'Tanzania Workbook'!A17</f>
+        <v>1996</v>
+      </c>
+      <c r="B7" s="75">
         <f>'Tanzania Workbook'!G17</f>
         <v>5</v>
       </c>
-      <c r="B7" s="88">
+      <c r="C7" s="76">
         <f>'Tanzania Workbook'!H17</f>
         <v>1.1196109358569926</v>
       </c>
-      <c r="C7" s="88">
+      <c r="D7" s="76">
         <f>'Tanzania Workbook'!I17</f>
         <v>1.1756384700676845</v>
       </c>
-      <c r="D7" s="88">
+      <c r="E7" s="76">
         <f>'Tanzania Workbook'!J17</f>
         <v>1.2428095405121009</v>
       </c>
-      <c r="E7" s="88">
+      <c r="F7" s="76">
         <f>'Tanzania Workbook'!K17</f>
         <v>1.1120511867626259</v>
       </c>
-      <c r="F7" s="88">
+      <c r="G7" s="76">
         <f>'Tanzania Workbook'!L17</f>
         <v>1.0720365548940087</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="87">
+      <c r="H7" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="15">
+        <f>'Tanzania Workbook'!A18</f>
+        <v>1997</v>
+      </c>
+      <c r="B8" s="75">
         <f>'Tanzania Workbook'!G18</f>
         <v>6</v>
       </c>
-      <c r="B8" s="88">
+      <c r="C8" s="76">
         <f>'Tanzania Workbook'!H18</f>
         <v>1.159043112513144</v>
       </c>
-      <c r="C8" s="88">
+      <c r="D8" s="76">
         <f>'Tanzania Workbook'!I18</f>
         <v>1.206546229055788</v>
       </c>
-      <c r="D8" s="88">
+      <c r="E8" s="76">
         <f>'Tanzania Workbook'!J18</f>
         <v>1.2663977551736232</v>
       </c>
-      <c r="E8" s="88">
+      <c r="F8" s="76">
         <f>'Tanzania Workbook'!K18</f>
         <v>1.1052881107020349</v>
       </c>
-      <c r="F8" s="88">
+      <c r="G8" s="76">
         <f>'Tanzania Workbook'!L18</f>
         <v>1.0454564094484575</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="87">
+      <c r="H8" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="15">
+        <f>'Tanzania Workbook'!A19</f>
+        <v>1998</v>
+      </c>
+      <c r="B9" s="75">
         <f>'Tanzania Workbook'!G19</f>
         <v>7</v>
       </c>
-      <c r="B9" s="88">
+      <c r="C9" s="76">
         <f>'Tanzania Workbook'!H19</f>
         <v>1.2020241850683491</v>
       </c>
-      <c r="C9" s="88">
+      <c r="D9" s="76">
         <f>'Tanzania Workbook'!I19</f>
         <v>1.2210962860108654</v>
       </c>
-      <c r="D9" s="88">
+      <c r="E9" s="76">
         <f>'Tanzania Workbook'!J19</f>
         <v>1.3040161346895827</v>
       </c>
-      <c r="E9" s="88">
+      <c r="F9" s="76">
         <f>'Tanzania Workbook'!K19</f>
         <v>1.1547949558395725</v>
       </c>
-      <c r="F9" s="88">
+      <c r="G9" s="76">
         <f>'Tanzania Workbook'!L19</f>
         <v>1.1080088892109301</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="87">
+      <c r="H9" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="15">
+        <f>'Tanzania Workbook'!A20</f>
+        <v>1999</v>
+      </c>
+      <c r="B10" s="75">
         <f>'Tanzania Workbook'!G20</f>
         <v>8</v>
       </c>
-      <c r="B10" s="88">
+      <c r="C10" s="76">
         <f>'Tanzania Workbook'!H20</f>
         <v>1.2602523659305993</v>
       </c>
-      <c r="C10" s="88">
+      <c r="D10" s="76">
         <f>'Tanzania Workbook'!I20</f>
         <v>1.2515828710931032</v>
       </c>
-      <c r="D10" s="88">
+      <c r="E10" s="76">
         <f>'Tanzania Workbook'!J20</f>
         <v>1.3468081374956156</v>
       </c>
-      <c r="E10" s="88">
+      <c r="F10" s="76">
         <f>'Tanzania Workbook'!K20</f>
         <v>1.1892406572595899</v>
       </c>
-      <c r="F10" s="88">
+      <c r="G10" s="76">
         <f>'Tanzania Workbook'!L20</f>
         <v>1.1421767273390644</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="87">
+      <c r="H10" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="15">
+        <f>'Tanzania Workbook'!A21</f>
+        <v>2000</v>
+      </c>
+      <c r="B11" s="75">
         <f>'Tanzania Workbook'!G21</f>
         <v>9</v>
       </c>
-      <c r="B11" s="88">
+      <c r="C11" s="76">
         <f>'Tanzania Workbook'!H21</f>
         <v>1.3224237644584649</v>
       </c>
-      <c r="C11" s="88">
+      <c r="D11" s="76">
         <f>'Tanzania Workbook'!I21</f>
         <v>1.2832842687413721</v>
       </c>
-      <c r="D11" s="88">
+      <c r="E11" s="76">
         <f>'Tanzania Workbook'!J21</f>
         <v>1.3944230094703614</v>
       </c>
-      <c r="E11" s="88">
+      <c r="F11" s="76">
         <f>'Tanzania Workbook'!K21</f>
         <v>1.2041377979550303</v>
       </c>
-      <c r="F11" s="88">
+      <c r="G11" s="76">
         <f>'Tanzania Workbook'!L21</f>
         <v>1.1462936922530851</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="87">
+      <c r="H11" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="15">
+        <f>'Tanzania Workbook'!A22</f>
+        <v>2001</v>
+      </c>
+      <c r="B12" s="75">
         <f>'Tanzania Workbook'!G22</f>
         <v>10</v>
       </c>
-      <c r="B12" s="88">
+      <c r="C12" s="76">
         <f>'Tanzania Workbook'!H22</f>
         <v>1.4016824395373291</v>
       </c>
-      <c r="C12" s="88">
+      <c r="D12" s="76">
         <f>'Tanzania Workbook'!I22</f>
         <v>1.3164204285711589</v>
       </c>
-      <c r="D12" s="88">
+      <c r="E12" s="76">
         <f>'Tanzania Workbook'!J22</f>
         <v>1.4558049807085234</v>
       </c>
-      <c r="E12" s="88">
+      <c r="F12" s="76">
         <f>'Tanzania Workbook'!K22</f>
         <v>1.2880636526808129</v>
       </c>
-      <c r="F12" s="88">
+      <c r="G12" s="76">
         <f>'Tanzania Workbook'!L22</f>
         <v>1.252139604498437</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="87">
+      <c r="H12" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="15">
+        <f>'Tanzania Workbook'!A23</f>
+        <v>2002</v>
+      </c>
+      <c r="B13" s="75">
         <f>'Tanzania Workbook'!G23</f>
         <v>11</v>
       </c>
-      <c r="B13" s="88">
+      <c r="C13" s="76">
         <f>'Tanzania Workbook'!H23</f>
         <v>1.5021030494216614</v>
       </c>
-      <c r="C13" s="88">
+      <c r="D13" s="76">
         <f>'Tanzania Workbook'!I23</f>
         <v>1.3684776113712027</v>
       </c>
-      <c r="D13" s="88">
+      <c r="E13" s="76">
         <f>'Tanzania Workbook'!J23</f>
         <v>1.5255173623290075</v>
       </c>
-      <c r="E13" s="88">
+      <c r="F13" s="76">
         <f>'Tanzania Workbook'!K23</f>
         <v>1.3549104649775128</v>
       </c>
-      <c r="F13" s="88">
+      <c r="G13" s="76">
         <f>'Tanzania Workbook'!L23</f>
         <v>1.3238372286243942</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="87">
+      <c r="H13" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="15">
+        <f>'Tanzania Workbook'!A24</f>
+        <v>2003</v>
+      </c>
+      <c r="B14" s="75">
         <f>'Tanzania Workbook'!G24</f>
         <v>12</v>
       </c>
-      <c r="B14" s="88">
+      <c r="C14" s="76">
         <f>'Tanzania Workbook'!H24</f>
         <v>1.6055467928496319</v>
       </c>
-      <c r="C14" s="88">
+      <c r="D14" s="76">
         <f>'Tanzania Workbook'!I24</f>
         <v>1.4229926061957845</v>
       </c>
-      <c r="D14" s="88">
+      <c r="E14" s="76">
         <f>'Tanzania Workbook'!J24</f>
         <v>1.6142581550333217</v>
       </c>
-      <c r="E14" s="88">
+      <c r="F14" s="76">
         <f>'Tanzania Workbook'!K24</f>
         <v>1.3879762171513219</v>
       </c>
-      <c r="F14" s="88">
+      <c r="G14" s="76">
         <f>'Tanzania Workbook'!L24</f>
         <v>1.3437277175678031</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="87">
+      <c r="H14" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="15">
+        <f>'Tanzania Workbook'!A25</f>
+        <v>2004</v>
+      </c>
+      <c r="B15" s="75">
         <f>'Tanzania Workbook'!G25</f>
         <v>13</v>
       </c>
-      <c r="B15" s="88">
+      <c r="C15" s="76">
         <f>'Tanzania Workbook'!H25</f>
         <v>1.7312039957939012</v>
       </c>
-      <c r="C15" s="88">
+      <c r="D15" s="76">
         <f>'Tanzania Workbook'!I25</f>
         <v>1.4616215628210345</v>
       </c>
-      <c r="D15" s="88">
+      <c r="E15" s="76">
         <f>'Tanzania Workbook'!J25</f>
         <v>1.7172044896527534</v>
       </c>
-      <c r="E15" s="88">
+      <c r="F15" s="76">
         <f>'Tanzania Workbook'!K25</f>
         <v>1.4426681154581782</v>
       </c>
-      <c r="F15" s="88">
+      <c r="G15" s="76">
         <f>'Tanzania Workbook'!L25</f>
         <v>1.4050247874690565</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="87">
+      <c r="H15" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="15">
+        <f>'Tanzania Workbook'!A26</f>
+        <v>2005</v>
+      </c>
+      <c r="B16" s="75">
         <f>'Tanzania Workbook'!G26</f>
         <v>14</v>
       </c>
-      <c r="B16" s="88">
+      <c r="C16" s="76">
         <f>'Tanzania Workbook'!H26</f>
         <v>1.8588328075709779</v>
       </c>
-      <c r="C16" s="88">
+      <c r="D16" s="76">
         <f>'Tanzania Workbook'!I26</f>
         <v>1.5020071213170048</v>
       </c>
-      <c r="D16" s="88">
+      <c r="E16" s="76">
         <f>'Tanzania Workbook'!J26</f>
         <v>1.8532094002104524</v>
       </c>
-      <c r="E16" s="88">
+      <c r="F16" s="76">
         <f>'Tanzania Workbook'!K26</f>
         <v>1.5215078285209578</v>
       </c>
-      <c r="F16" s="88">
+      <c r="G16" s="76">
         <f>'Tanzania Workbook'!L26</f>
         <v>1.502544463388968</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="87">
+      <c r="H16" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="15">
+        <f>'Tanzania Workbook'!A27</f>
+        <v>2006</v>
+      </c>
+      <c r="B17" s="75">
         <f>'Tanzania Workbook'!G27</f>
         <v>15</v>
       </c>
-      <c r="B17" s="88">
+      <c r="C17" s="76">
         <f>'Tanzania Workbook'!H27</f>
         <v>1.9840956887486856</v>
       </c>
-      <c r="C17" s="88">
+      <c r="D17" s="76">
         <f>'Tanzania Workbook'!I27</f>
         <v>1.5442689594453047</v>
       </c>
-      <c r="D17" s="88">
+      <c r="E17" s="76">
         <f>'Tanzania Workbook'!J27</f>
         <v>2.0208698702209751</v>
       </c>
-      <c r="E17" s="88">
+      <c r="F17" s="76">
         <f>'Tanzania Workbook'!K27</f>
         <v>1.5620745995776157</v>
       </c>
-      <c r="F17" s="88">
+      <c r="G17" s="76">
         <f>'Tanzania Workbook'!L27</f>
         <v>1.5408789848153588</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="87">
+      <c r="H17" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="15">
+        <f>'Tanzania Workbook'!A28</f>
+        <v>2007</v>
+      </c>
+      <c r="B18" s="75">
         <f>'Tanzania Workbook'!G28</f>
         <v>16</v>
       </c>
-      <c r="B18" s="88">
+      <c r="C18" s="76">
         <f>'Tanzania Workbook'!H28</f>
         <v>2.1259200841219767</v>
       </c>
-      <c r="C18" s="88">
+      <c r="D18" s="76">
         <f>'Tanzania Workbook'!I28</f>
         <v>1.5885418403996812</v>
       </c>
-      <c r="D18" s="88">
+      <c r="E18" s="76">
         <f>'Tanzania Workbook'!J28</f>
         <v>2.2198351455629606</v>
       </c>
-      <c r="E18" s="88">
+      <c r="F18" s="76">
         <f>'Tanzania Workbook'!K28</f>
         <v>1.6875312416589288</v>
       </c>
-      <c r="F18" s="88">
+      <c r="G18" s="76">
         <f>'Tanzania Workbook'!L28</f>
         <v>1.6997700309861186</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="87">
+      <c r="H18" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="15">
+        <f>'Tanzania Workbook'!A29</f>
+        <v>2008</v>
+      </c>
+      <c r="B19" s="75">
         <f>'Tanzania Workbook'!G29</f>
         <v>17</v>
       </c>
-      <c r="B19" s="88">
+      <c r="C19" s="76">
         <f>'Tanzania Workbook'!H29</f>
         <v>2.2840431125131442</v>
       </c>
-      <c r="C19" s="88">
+      <c r="D19" s="76">
         <f>'Tanzania Workbook'!I29</f>
         <v>1.6349385181151996</v>
       </c>
-      <c r="D19" s="88">
+      <c r="E19" s="76">
         <f>'Tanzania Workbook'!J29</f>
         <v>2.4314275692739389</v>
       </c>
-      <c r="E19" s="88">
+      <c r="F19" s="76">
         <f>'Tanzania Workbook'!K29</f>
         <v>1.7562533420012651</v>
       </c>
-      <c r="F19" s="88">
+      <c r="G19" s="76">
         <f>'Tanzania Workbook'!L29</f>
         <v>1.7765544590358078</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="87">
+      <c r="H19" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="15">
+        <f>'Tanzania Workbook'!A30</f>
+        <v>2009</v>
+      </c>
+      <c r="B20" s="75">
         <f>'Tanzania Workbook'!G30</f>
         <v>18</v>
       </c>
-      <c r="B20" s="88">
+      <c r="C20" s="76">
         <f>'Tanzania Workbook'!H30</f>
         <v>2.4215299684542586</v>
       </c>
-      <c r="C20" s="88">
+      <c r="D20" s="76">
         <f>'Tanzania Workbook'!I30</f>
         <v>1.6835627726288354</v>
       </c>
-      <c r="D20" s="88">
+      <c r="E20" s="76">
         <f>'Tanzania Workbook'!J30</f>
         <v>2.6652928796913362</v>
       </c>
-      <c r="E20" s="88">
+      <c r="F20" s="76">
         <f>'Tanzania Workbook'!K30</f>
         <v>1.8280391745410851</v>
       </c>
-      <c r="F20" s="88">
+      <c r="G20" s="76">
         <f>'Tanzania Workbook'!L30</f>
         <v>1.8560478935708336</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="87">
+      <c r="H20" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="15">
+        <f>'Tanzania Workbook'!A31</f>
+        <v>2010</v>
+      </c>
+      <c r="B21" s="75">
         <f>'Tanzania Workbook'!G31</f>
         <v>19</v>
       </c>
-      <c r="B21" s="88">
+      <c r="C21" s="76">
         <f>'Tanzania Workbook'!H31</f>
         <v>2.5906940063091484</v>
       </c>
-      <c r="C21" s="88">
+      <c r="D21" s="76">
         <f>'Tanzania Workbook'!I31</f>
         <v>1.7344853120686496</v>
       </c>
-      <c r="D21" s="88">
+      <c r="E21" s="76">
         <f>'Tanzania Workbook'!J31</f>
         <v>2.9149421255699752</v>
       </c>
-      <c r="E21" s="88">
+      <c r="F21" s="76">
         <f>'Tanzania Workbook'!K31</f>
         <v>1.9348427776891224</v>
       </c>
-      <c r="F21" s="88">
+      <c r="G21" s="76">
         <f>'Tanzania Workbook'!L31</f>
         <v>1.9881560703526018</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="87">
+      <c r="H21" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="15">
+        <f>'Tanzania Workbook'!A32</f>
+        <v>2011</v>
+      </c>
+      <c r="B22" s="75">
         <f>'Tanzania Workbook'!G32</f>
         <v>20</v>
       </c>
-      <c r="B22" s="88">
+      <c r="C22" s="76">
         <f>'Tanzania Workbook'!H32</f>
         <v>2.7564405888538381</v>
       </c>
-      <c r="C22" s="88">
+      <c r="D22" s="76">
         <f>'Tanzania Workbook'!I32</f>
         <v>1.7877585486411658</v>
       </c>
-      <c r="D22" s="88">
+      <c r="E22" s="76">
         <f>'Tanzania Workbook'!J32</f>
         <v>3.1830059628200633</v>
       </c>
-      <c r="E22" s="88">
+      <c r="F22" s="76">
         <f>'Tanzania Workbook'!K32</f>
         <v>2.0288442341651796</v>
       </c>
-      <c r="F22" s="88">
+      <c r="G22" s="76">
         <f>'Tanzania Workbook'!L32</f>
         <v>2.1001325431233382</v>
       </c>
+      <c r="H22" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6406,13 +6680,13 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="5" customFormat="1">
@@ -6487,19 +6761,19 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="5"/>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="79" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6507,11 +6781,11 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="5">
@@ -6984,6 +7258,11 @@
     <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6995,42 +7274,42 @@
       <selection activeCell="AG30" sqref="AG30:AG50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="42.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="16" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5" style="16" customWidth="1"/>
     <col min="13" max="13" width="26" style="16" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" style="16" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" style="16" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="16" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" style="16" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" style="16" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" style="16" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="16" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" style="16" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="16" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" style="16" customWidth="1"/>
-    <col min="25" max="25" width="16.85546875" style="16" customWidth="1"/>
-    <col min="26" max="26" width="19.85546875" style="16" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" style="16" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" style="16" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" style="16" customWidth="1"/>
+    <col min="20" max="20" width="18.5" style="16" customWidth="1"/>
+    <col min="21" max="21" width="16.5" style="16" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" style="16" customWidth="1"/>
+    <col min="23" max="23" width="14.5" style="16" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" style="16" customWidth="1"/>
+    <col min="25" max="25" width="16.83203125" style="16" customWidth="1"/>
+    <col min="26" max="26" width="19.83203125" style="16" customWidth="1"/>
     <col min="27" max="27" width="18" style="16" customWidth="1"/>
-    <col min="28" max="28" width="18.28515625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" style="16" customWidth="1"/>
+    <col min="28" max="28" width="18.33203125" style="16" customWidth="1"/>
+    <col min="29" max="29" width="15.5" style="16" customWidth="1"/>
     <col min="30" max="30" width="15" style="16" customWidth="1"/>
-    <col min="31" max="31" width="22.140625" style="16" customWidth="1"/>
-    <col min="32" max="32" width="19.7109375" style="16" customWidth="1"/>
-    <col min="33" max="33" width="14.28515625" style="16" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="16"/>
+    <col min="31" max="31" width="22.1640625" style="16" customWidth="1"/>
+    <col min="32" max="32" width="19.6640625" style="16" customWidth="1"/>
+    <col min="33" max="33" width="14.33203125" style="16" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7101,7 +7380,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="20"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+    <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -7112,7 +7391,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="21" t="s">
         <v>13</v>
       </c>
@@ -7135,7 +7414,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="18">
+    <row r="17" spans="1:33" ht="16">
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
@@ -7182,7 +7461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="18">
+    <row r="19" spans="1:33" ht="16">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -7203,7 +7482,7 @@
       </c>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="1:33" ht="19.5" thickBot="1">
+    <row r="20" spans="1:33" ht="18" thickBot="1">
       <c r="A20" s="28" t="s">
         <v>48</v>
       </c>
@@ -7224,7 +7503,7 @@
       </c>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" spans="1:33" ht="18.75">
+    <row r="21" spans="1:33" ht="17">
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
       <c r="C21" s="33">
@@ -7241,7 +7520,7 @@
       </c>
       <c r="G21" s="26"/>
     </row>
-    <row r="22" spans="1:33" ht="18">
+    <row r="22" spans="1:33" ht="16">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="30">
@@ -7259,7 +7538,7 @@
       </c>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="1:33" ht="15.75" thickBot="1">
+    <row r="23" spans="1:33" ht="15" thickBot="1">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="25">
@@ -7278,7 +7557,7 @@
       </c>
       <c r="G23" s="62"/>
     </row>
-    <row r="24" spans="1:33" ht="18" thickBot="1">
+    <row r="24" spans="1:33" ht="17" thickBot="1">
       <c r="A24" s="34"/>
       <c r="C24" s="35">
         <f>1000/6</f>
@@ -7296,7 +7575,7 @@
       <c r="A26" s="34"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:33" ht="15.75" thickBot="1">
+    <row r="27" spans="1:33" ht="15" thickBot="1">
       <c r="E27" s="15" t="s">
         <v>52</v>
       </c>
@@ -7314,137 +7593,137 @@
       <c r="A28" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="77" t="s">
+      <c r="E28" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="77" t="s">
+      <c r="F28" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="77" t="s">
+      <c r="G28" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="77" t="s">
+      <c r="H28" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="77" t="s">
+      <c r="I28" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="J28" s="77" t="s">
+      <c r="J28" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="K28" s="77" t="s">
+      <c r="K28" s="83" t="s">
         <v>79</v>
       </c>
       <c r="L28" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="M28" s="83" t="s">
+      <c r="M28" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="N28" s="77" t="s">
+      <c r="N28" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="O28" s="77" t="s">
+      <c r="O28" s="83" t="s">
         <v>80</v>
       </c>
       <c r="P28" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="Q28" s="83" t="s">
+      <c r="Q28" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="R28" s="77" t="s">
+      <c r="R28" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="S28" s="77" t="s">
+      <c r="S28" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="T28" s="77" t="s">
+      <c r="T28" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="U28" s="77" t="s">
+      <c r="U28" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="V28" s="77" t="s">
+      <c r="V28" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="W28" s="77" t="s">
+      <c r="W28" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="X28" s="79" t="s">
+      <c r="X28" s="87" t="s">
         <v>32</v>
       </c>
       <c r="Y28" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="Z28" s="83" t="s">
+      <c r="Z28" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="AA28" s="77" t="s">
+      <c r="AA28" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="AB28" s="77" t="s">
+      <c r="AB28" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="AC28" s="77" t="s">
+      <c r="AC28" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="AD28" s="77" t="s">
+      <c r="AD28" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="AE28" s="77" t="s">
+      <c r="AE28" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="AF28" s="77" t="s">
+      <c r="AF28" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="AG28" s="79" t="s">
+      <c r="AG28" s="87" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="82"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
       <c r="L29" s="82"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
       <c r="P29" s="82"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="80"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="88"/>
       <c r="Y29" s="82"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="78"/>
-      <c r="AF29" s="78"/>
-      <c r="AG29" s="80"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="84"/>
+      <c r="AB29" s="84"/>
+      <c r="AC29" s="84"/>
+      <c r="AD29" s="84"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
+      <c r="AG29" s="88"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="38">
@@ -9760,7 +10039,7 @@
         <v>335054.119627323</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="15.75" thickBot="1">
+    <row r="50" spans="1:33" ht="15" thickBot="1">
       <c r="A50" s="47">
         <v>2011</v>
       </c>
@@ -9879,11 +10158,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
     <mergeCell ref="O28:O29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
@@ -9894,25 +10186,17 @@
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="N28:N29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/Excel Workbooks/TanzaniaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/TanzaniaDataWorkbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="22240" windowHeight="17460" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="22240" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Tanzania Workbook" sheetId="1" r:id="rId1"/>
@@ -857,7 +857,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1151,6 +1151,13 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2235,7 +2242,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2424,27 +2431,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2453,11 +2466,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="485">
@@ -3442,64 +3452,64 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.021050865682027</c:v>
+                  <c:v>1.021050789266611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.055615331336693</c:v>
+                  <c:v>1.055615304980681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.109990794037389</c:v>
+                  <c:v>1.109990783424907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.143580093612782</c:v>
+                  <c:v>1.143580049644695</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.175638470067685</c:v>
+                  <c:v>1.175638383363054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.206546229055788</c:v>
+                  <c:v>1.20654618084553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.221096286010865</c:v>
+                  <c:v>1.221096226723652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.251582871093103</c:v>
+                  <c:v>1.251582855300839</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.283284268741372</c:v>
+                  <c:v>1.283284205863373</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.316420428571159</c:v>
+                  <c:v>1.316420343837986</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.368477611371203</c:v>
+                  <c:v>1.368477568326888</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.422992606195784</c:v>
+                  <c:v>1.422992546173902</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.461621562821034</c:v>
+                  <c:v>1.46162150651699</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.502007121317005</c:v>
+                  <c:v>1.502007073251786</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.544268959445305</c:v>
+                  <c:v>1.544268893600592</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.588541840399681</c:v>
+                  <c:v>1.588541748734958</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6349385181152</c:v>
+                  <c:v>1.634938431088408</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.683562772628835</c:v>
+                  <c:v>1.683562741748147</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.73448531206865</c:v>
+                  <c:v>1.734485276136264</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.787758548641166</c:v>
+                  <c:v>1.787758468935744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3844,11 +3854,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143428936"/>
-        <c:axId val="-2143416568"/>
+        <c:axId val="-2115275176"/>
+        <c:axId val="-2115376888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143428936"/>
+        <c:axId val="-2115275176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3881,12 +3891,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143416568"/>
+        <c:crossAx val="-2115376888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143416568"/>
+        <c:axId val="-2115376888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3919,7 +3929,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143428936"/>
+        <c:crossAx val="-2115275176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4602,8 +4612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4624,12 +4634,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="5" customFormat="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="E1" s="70"/>
       <c r="G1" s="71"/>
       <c r="K1" s="71"/>
@@ -4836,35 +4846,35 @@
     </row>
     <row r="10" spans="1:56" ht="15" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="78" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="72"/>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="77" t="s">
+      <c r="J10" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="77" t="s">
+      <c r="K10" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="77" t="s">
+      <c r="L10" s="78" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4872,17 +4882,17 @@
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="72"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
     </row>
     <row r="12" spans="1:56">
       <c r="A12" s="11">
@@ -4891,8 +4901,8 @@
       <c r="B12" s="74">
         <v>7608</v>
       </c>
-      <c r="C12" s="73">
-        <v>11233022.592599999</v>
+      <c r="C12" s="89">
+        <v>11233023</v>
       </c>
       <c r="D12" s="74">
         <v>11404</v>
@@ -4935,8 +4945,8 @@
       <c r="B13" s="74">
         <v>7653</v>
       </c>
-      <c r="C13" s="73">
-        <v>11469487.442400001</v>
+      <c r="C13" s="89">
+        <v>11469487</v>
       </c>
       <c r="D13" s="74">
         <v>12297</v>
@@ -4957,7 +4967,7 @@
       </c>
       <c r="I13" s="67">
         <f t="shared" ref="I13:I32" si="3">C13/$C$12</f>
-        <v>1.0210508656820274</v>
+        <v>1.0210507892666114</v>
       </c>
       <c r="J13" s="67">
         <f t="shared" ref="J13:J32" si="4">D13/$D$12</f>
@@ -4979,8 +4989,8 @@
       <c r="B14" s="74">
         <v>7745</v>
       </c>
-      <c r="C14" s="73">
-        <v>11857750.866000002</v>
+      <c r="C14" s="89">
+        <v>11857751</v>
       </c>
       <c r="D14" s="74">
         <v>12934</v>
@@ -5001,7 +5011,7 @@
       </c>
       <c r="I14" s="67">
         <f t="shared" si="3"/>
-        <v>1.0556153313366927</v>
+        <v>1.0556153049806807</v>
       </c>
       <c r="J14" s="67">
         <f t="shared" si="4"/>
@@ -5023,8 +5033,8 @@
       <c r="B15" s="74">
         <v>7867</v>
       </c>
-      <c r="C15" s="73">
-        <v>12468551.667000001</v>
+      <c r="C15" s="89">
+        <v>12468552</v>
       </c>
       <c r="D15" s="74">
         <v>13546</v>
@@ -5045,7 +5055,7 @@
       </c>
       <c r="I15" s="67">
         <f t="shared" si="3"/>
-        <v>1.1099907940373888</v>
+        <v>1.109990783424907</v>
       </c>
       <c r="J15" s="67">
         <f t="shared" si="4"/>
@@ -5067,8 +5077,8 @@
       <c r="B16" s="74">
         <v>8147</v>
       </c>
-      <c r="C16" s="73">
-        <v>12845861.028000003</v>
+      <c r="C16" s="89">
+        <v>12845861</v>
       </c>
       <c r="D16" s="74">
         <v>13888</v>
@@ -5089,7 +5099,7 @@
       </c>
       <c r="I16" s="67">
         <f t="shared" si="3"/>
-        <v>1.143580093612782</v>
+        <v>1.1435800496446948</v>
       </c>
       <c r="J16" s="67">
         <f t="shared" si="4"/>
@@ -5111,8 +5121,8 @@
       <c r="B17" s="74">
         <v>8518</v>
       </c>
-      <c r="C17" s="73">
-        <v>13205973.494999999</v>
+      <c r="C17" s="89">
+        <v>13205973</v>
       </c>
       <c r="D17" s="74">
         <v>14173</v>
@@ -5133,7 +5143,7 @@
       </c>
       <c r="I17" s="67">
         <f t="shared" si="3"/>
-        <v>1.1756384700676845</v>
+        <v>1.1756383833630537</v>
       </c>
       <c r="J17" s="67">
         <f t="shared" si="4"/>
@@ -5155,8 +5165,8 @@
       <c r="B18" s="74">
         <v>8818</v>
       </c>
-      <c r="C18" s="73">
-        <v>13553161.050000001</v>
+      <c r="C18" s="89">
+        <v>13553161</v>
       </c>
       <c r="D18" s="74">
         <v>14442</v>
@@ -5177,7 +5187,7 @@
       </c>
       <c r="I18" s="67">
         <f t="shared" si="3"/>
-        <v>1.206546229055788</v>
+        <v>1.2065461808455302</v>
       </c>
       <c r="J18" s="67">
         <f t="shared" si="4"/>
@@ -5199,8 +5209,8 @@
       <c r="B19" s="74">
         <v>9145</v>
       </c>
-      <c r="C19" s="73">
-        <v>13716602.168500001</v>
+      <c r="C19" s="89">
+        <v>13716602</v>
       </c>
       <c r="D19" s="74">
         <v>14871</v>
@@ -5221,7 +5231,7 @@
       </c>
       <c r="I19" s="67">
         <f t="shared" si="3"/>
-        <v>1.2210962860108654</v>
+        <v>1.2210962267236523</v>
       </c>
       <c r="J19" s="67">
         <f t="shared" si="4"/>
@@ -5243,8 +5253,8 @@
       <c r="B20" s="74">
         <v>9588</v>
       </c>
-      <c r="C20" s="73">
-        <v>14059058.6675</v>
+      <c r="C20" s="89">
+        <v>14059059</v>
       </c>
       <c r="D20" s="74">
         <v>15359</v>
@@ -5265,7 +5275,7 @@
       </c>
       <c r="I20" s="67">
         <f t="shared" si="3"/>
-        <v>1.2515828710931032</v>
+        <v>1.2515828553008392</v>
       </c>
       <c r="J20" s="67">
         <f t="shared" si="4"/>
@@ -5287,8 +5297,8 @@
       <c r="B21" s="74">
         <v>10061</v>
       </c>
-      <c r="C21" s="73">
-        <v>14415161.183500001</v>
+      <c r="C21" s="89">
+        <v>14415161</v>
       </c>
       <c r="D21" s="74">
         <v>15902</v>
@@ -5309,7 +5319,7 @@
       </c>
       <c r="I21" s="67">
         <f t="shared" si="3"/>
-        <v>1.2832842687413721</v>
+        <v>1.2832842058633727</v>
       </c>
       <c r="J21" s="67">
         <f t="shared" si="4"/>
@@ -5331,8 +5341,8 @@
       <c r="B22" s="74">
         <v>10664</v>
       </c>
-      <c r="C22" s="73">
-        <v>14787380.415500002</v>
+      <c r="C22" s="89">
+        <v>14787380</v>
       </c>
       <c r="D22" s="74">
         <v>16602</v>
@@ -5353,7 +5363,7 @@
       </c>
       <c r="I22" s="67">
         <f t="shared" si="3"/>
-        <v>1.3164204285711589</v>
+        <v>1.3164203438379856</v>
       </c>
       <c r="J22" s="67">
         <f t="shared" si="4"/>
@@ -5375,8 +5385,8 @@
       <c r="B23" s="74">
         <v>11428</v>
       </c>
-      <c r="C23" s="73">
-        <v>15372139.926000001</v>
+      <c r="C23" s="89">
+        <v>15372140</v>
       </c>
       <c r="D23" s="74">
         <v>17397</v>
@@ -5397,7 +5407,7 @@
       </c>
       <c r="I23" s="67">
         <f t="shared" si="3"/>
-        <v>1.3684776113712027</v>
+        <v>1.3684775683268877</v>
       </c>
       <c r="J23" s="67">
         <f t="shared" si="4"/>
@@ -5419,8 +5429,8 @@
       <c r="B24" s="74">
         <v>12215</v>
       </c>
-      <c r="C24" s="73">
-        <v>15984508.0945</v>
+      <c r="C24" s="89">
+        <v>15984508</v>
       </c>
       <c r="D24" s="74">
         <v>18409</v>
@@ -5441,7 +5451,7 @@
       </c>
       <c r="I24" s="67">
         <f t="shared" si="3"/>
-        <v>1.4229926061957845</v>
+        <v>1.4229925461739017</v>
       </c>
       <c r="J24" s="67">
         <f t="shared" si="4"/>
@@ -5463,8 +5473,8 @@
       <c r="B25" s="74">
         <v>13171</v>
       </c>
-      <c r="C25" s="73">
-        <v>16418428.037</v>
+      <c r="C25" s="89">
+        <v>16418428</v>
       </c>
       <c r="D25" s="74">
         <v>19583</v>
@@ -5485,7 +5495,7 @@
       </c>
       <c r="I25" s="67">
         <f t="shared" si="3"/>
-        <v>1.4616215628210345</v>
+        <v>1.4616215065169902</v>
       </c>
       <c r="J25" s="67">
         <f t="shared" si="4"/>
@@ -5507,8 +5517,8 @@
       <c r="B26" s="74">
         <v>14142</v>
       </c>
-      <c r="C26" s="73">
-        <v>16872079.928000003</v>
+      <c r="C26" s="89">
+        <v>16872080</v>
       </c>
       <c r="D26" s="74">
         <v>21134</v>
@@ -5529,7 +5539,7 @@
       </c>
       <c r="I26" s="67">
         <f t="shared" si="3"/>
-        <v>1.5020071213170048</v>
+        <v>1.5020070732517863</v>
       </c>
       <c r="J26" s="67">
         <f t="shared" si="4"/>
@@ -5551,8 +5561,8 @@
       <c r="B27" s="74">
         <v>15095</v>
       </c>
-      <c r="C27" s="73">
-        <v>17346808.1105</v>
+      <c r="C27" s="89">
+        <v>17346808</v>
       </c>
       <c r="D27" s="74">
         <v>23046</v>
@@ -5573,7 +5583,7 @@
       </c>
       <c r="I27" s="67">
         <f t="shared" si="3"/>
-        <v>1.5442689594453047</v>
+        <v>1.5442688936005917</v>
       </c>
       <c r="J27" s="67">
         <f t="shared" si="4"/>
@@ -5595,8 +5605,8 @@
       <c r="B28" s="74">
         <v>16174</v>
       </c>
-      <c r="C28" s="73">
-        <v>17844126.3825</v>
+      <c r="C28" s="89">
+        <v>17844126</v>
       </c>
       <c r="D28" s="74">
         <v>25315</v>
@@ -5617,7 +5627,7 @@
       </c>
       <c r="I28" s="67">
         <f t="shared" si="3"/>
-        <v>1.5885418403996812</v>
+        <v>1.5885417487349576</v>
       </c>
       <c r="J28" s="67">
         <f t="shared" si="4"/>
@@ -5639,8 +5649,8 @@
       <c r="B29" s="74">
         <v>17377</v>
       </c>
-      <c r="C29" s="73">
-        <v>18365301.311500002</v>
+      <c r="C29" s="89">
+        <v>18365301</v>
       </c>
       <c r="D29" s="74">
         <v>27728</v>
@@ -5661,7 +5671,7 @@
       </c>
       <c r="I29" s="67">
         <f t="shared" si="3"/>
-        <v>1.6349385181151996</v>
+        <v>1.6349384310884079</v>
       </c>
       <c r="J29" s="67">
         <f t="shared" si="4"/>
@@ -5683,8 +5693,8 @@
       <c r="B30" s="74">
         <v>18423</v>
       </c>
-      <c r="C30" s="73">
-        <v>18911498.661000002</v>
+      <c r="C30" s="89">
+        <v>18911499</v>
       </c>
       <c r="D30" s="74">
         <v>30395</v>
@@ -5705,7 +5715,7 @@
       </c>
       <c r="I30" s="67">
         <f t="shared" si="3"/>
-        <v>1.6835627726288354</v>
+        <v>1.6835627417481474</v>
       </c>
       <c r="J30" s="67">
         <f t="shared" si="4"/>
@@ -5727,8 +5737,8 @@
       <c r="B31" s="74">
         <v>19710</v>
       </c>
-      <c r="C31" s="73">
-        <v>19483512.697000001</v>
+      <c r="C31" s="89">
+        <v>19483513</v>
       </c>
       <c r="D31" s="74">
         <v>33242</v>
@@ -5749,7 +5759,7 @@
       </c>
       <c r="I31" s="67">
         <f t="shared" si="3"/>
-        <v>1.7344853120686496</v>
+        <v>1.7344852761362637</v>
       </c>
       <c r="J31" s="67">
         <f t="shared" si="4"/>
@@ -5771,8 +5781,8 @@
       <c r="B32" s="74">
         <v>20971</v>
       </c>
-      <c r="C32" s="73">
-        <v>20081932.166999999</v>
+      <c r="C32" s="89">
+        <v>20081932</v>
       </c>
       <c r="D32" s="74">
         <v>36299</v>
@@ -5793,7 +5803,7 @@
       </c>
       <c r="I32" s="67">
         <f t="shared" si="3"/>
-        <v>1.7877585486411658</v>
+        <v>1.7877584689357442</v>
       </c>
       <c r="J32" s="67">
         <f t="shared" si="4"/>
@@ -5861,7 +5871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -5957,7 +5967,7 @@
       </c>
       <c r="D3" s="76">
         <f>'Tanzania Workbook'!I13</f>
-        <v>1.0210508656820274</v>
+        <v>1.0210507892666114</v>
       </c>
       <c r="E3" s="76">
         <f>'Tanzania Workbook'!J13</f>
@@ -5993,7 +6003,7 @@
       </c>
       <c r="D4" s="76">
         <f>'Tanzania Workbook'!I14</f>
-        <v>1.0556153313366927</v>
+        <v>1.0556153049806807</v>
       </c>
       <c r="E4" s="76">
         <f>'Tanzania Workbook'!J14</f>
@@ -6029,7 +6039,7 @@
       </c>
       <c r="D5" s="76">
         <f>'Tanzania Workbook'!I15</f>
-        <v>1.1099907940373888</v>
+        <v>1.109990783424907</v>
       </c>
       <c r="E5" s="76">
         <f>'Tanzania Workbook'!J15</f>
@@ -6065,7 +6075,7 @@
       </c>
       <c r="D6" s="76">
         <f>'Tanzania Workbook'!I16</f>
-        <v>1.143580093612782</v>
+        <v>1.1435800496446948</v>
       </c>
       <c r="E6" s="76">
         <f>'Tanzania Workbook'!J16</f>
@@ -6101,7 +6111,7 @@
       </c>
       <c r="D7" s="76">
         <f>'Tanzania Workbook'!I17</f>
-        <v>1.1756384700676845</v>
+        <v>1.1756383833630537</v>
       </c>
       <c r="E7" s="76">
         <f>'Tanzania Workbook'!J17</f>
@@ -6137,7 +6147,7 @@
       </c>
       <c r="D8" s="76">
         <f>'Tanzania Workbook'!I18</f>
-        <v>1.206546229055788</v>
+        <v>1.2065461808455302</v>
       </c>
       <c r="E8" s="76">
         <f>'Tanzania Workbook'!J18</f>
@@ -6173,7 +6183,7 @@
       </c>
       <c r="D9" s="76">
         <f>'Tanzania Workbook'!I19</f>
-        <v>1.2210962860108654</v>
+        <v>1.2210962267236523</v>
       </c>
       <c r="E9" s="76">
         <f>'Tanzania Workbook'!J19</f>
@@ -6209,7 +6219,7 @@
       </c>
       <c r="D10" s="76">
         <f>'Tanzania Workbook'!I20</f>
-        <v>1.2515828710931032</v>
+        <v>1.2515828553008392</v>
       </c>
       <c r="E10" s="76">
         <f>'Tanzania Workbook'!J20</f>
@@ -6245,7 +6255,7 @@
       </c>
       <c r="D11" s="76">
         <f>'Tanzania Workbook'!I21</f>
-        <v>1.2832842687413721</v>
+        <v>1.2832842058633727</v>
       </c>
       <c r="E11" s="76">
         <f>'Tanzania Workbook'!J21</f>
@@ -6281,7 +6291,7 @@
       </c>
       <c r="D12" s="76">
         <f>'Tanzania Workbook'!I22</f>
-        <v>1.3164204285711589</v>
+        <v>1.3164203438379856</v>
       </c>
       <c r="E12" s="76">
         <f>'Tanzania Workbook'!J22</f>
@@ -6317,7 +6327,7 @@
       </c>
       <c r="D13" s="76">
         <f>'Tanzania Workbook'!I23</f>
-        <v>1.3684776113712027</v>
+        <v>1.3684775683268877</v>
       </c>
       <c r="E13" s="76">
         <f>'Tanzania Workbook'!J23</f>
@@ -6353,7 +6363,7 @@
       </c>
       <c r="D14" s="76">
         <f>'Tanzania Workbook'!I24</f>
-        <v>1.4229926061957845</v>
+        <v>1.4229925461739017</v>
       </c>
       <c r="E14" s="76">
         <f>'Tanzania Workbook'!J24</f>
@@ -6389,7 +6399,7 @@
       </c>
       <c r="D15" s="76">
         <f>'Tanzania Workbook'!I25</f>
-        <v>1.4616215628210345</v>
+        <v>1.4616215065169902</v>
       </c>
       <c r="E15" s="76">
         <f>'Tanzania Workbook'!J25</f>
@@ -6425,7 +6435,7 @@
       </c>
       <c r="D16" s="76">
         <f>'Tanzania Workbook'!I26</f>
-        <v>1.5020071213170048</v>
+        <v>1.5020070732517863</v>
       </c>
       <c r="E16" s="76">
         <f>'Tanzania Workbook'!J26</f>
@@ -6461,7 +6471,7 @@
       </c>
       <c r="D17" s="76">
         <f>'Tanzania Workbook'!I27</f>
-        <v>1.5442689594453047</v>
+        <v>1.5442688936005917</v>
       </c>
       <c r="E17" s="76">
         <f>'Tanzania Workbook'!J27</f>
@@ -6497,7 +6507,7 @@
       </c>
       <c r="D18" s="76">
         <f>'Tanzania Workbook'!I28</f>
-        <v>1.5885418403996812</v>
+        <v>1.5885417487349576</v>
       </c>
       <c r="E18" s="76">
         <f>'Tanzania Workbook'!J28</f>
@@ -6533,7 +6543,7 @@
       </c>
       <c r="D19" s="76">
         <f>'Tanzania Workbook'!I29</f>
-        <v>1.6349385181151996</v>
+        <v>1.6349384310884079</v>
       </c>
       <c r="E19" s="76">
         <f>'Tanzania Workbook'!J29</f>
@@ -6569,7 +6579,7 @@
       </c>
       <c r="D20" s="76">
         <f>'Tanzania Workbook'!I30</f>
-        <v>1.6835627726288354</v>
+        <v>1.6835627417481474</v>
       </c>
       <c r="E20" s="76">
         <f>'Tanzania Workbook'!J30</f>
@@ -6605,7 +6615,7 @@
       </c>
       <c r="D21" s="76">
         <f>'Tanzania Workbook'!I31</f>
-        <v>1.7344853120686496</v>
+        <v>1.7344852761362637</v>
       </c>
       <c r="E21" s="76">
         <f>'Tanzania Workbook'!J31</f>
@@ -6641,7 +6651,7 @@
       </c>
       <c r="D22" s="76">
         <f>'Tanzania Workbook'!I32</f>
-        <v>1.7877585486411658</v>
+        <v>1.7877584689357442</v>
       </c>
       <c r="E22" s="76">
         <f>'Tanzania Workbook'!J32</f>
@@ -6761,19 +6771,19 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="5"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="77" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6781,9 +6791,9 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
     </row>
@@ -7590,140 +7600,140 @@
       </c>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="83" t="s">
+      <c r="E28" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="83" t="s">
+      <c r="F28" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="83" t="s">
+      <c r="G28" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="83" t="s">
+      <c r="H28" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="83" t="s">
+      <c r="I28" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="J28" s="83" t="s">
+      <c r="J28" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="K28" s="83" t="s">
+      <c r="K28" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="81" t="s">
+      <c r="L28" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="M28" s="85" t="s">
+      <c r="M28" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N28" s="83" t="s">
+      <c r="N28" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="O28" s="83" t="s">
+      <c r="O28" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="P28" s="81" t="s">
+      <c r="P28" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="Q28" s="85" t="s">
+      <c r="Q28" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="R28" s="83" t="s">
+      <c r="R28" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="S28" s="83" t="s">
+      <c r="S28" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="T28" s="83" t="s">
+      <c r="T28" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="U28" s="83" t="s">
+      <c r="U28" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="V28" s="83" t="s">
+      <c r="V28" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="W28" s="83" t="s">
+      <c r="W28" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="X28" s="87" t="s">
+      <c r="X28" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Y28" s="81" t="s">
+      <c r="Y28" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="Z28" s="85" t="s">
+      <c r="Z28" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="AA28" s="83" t="s">
+      <c r="AA28" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="AB28" s="83" t="s">
+      <c r="AB28" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="AC28" s="83" t="s">
+      <c r="AC28" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="AD28" s="83" t="s">
+      <c r="AD28" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AE28" s="83" t="s">
+      <c r="AE28" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AF28" s="83" t="s">
+      <c r="AF28" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="AG28" s="87" t="s">
+      <c r="AG28" s="83" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="82"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="84"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="88"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="82"/>
+      <c r="AC29" s="82"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="82"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="84"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="38">
@@ -10158,24 +10168,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="O28:O29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
@@ -10186,11 +10183,24 @@
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="N28:N29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
